--- a/Collections/Евро/Регулярный_чекан_с_тиражами_1999-н.в.xlsx
+++ b/Collections/Евро/Регулярный_чекан_с_тиражами_1999-н.в.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" firstSheet="17" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Австрия" sheetId="2" r:id="rId1"/>
@@ -11959,16 +11959,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11976,6 +11974,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13659,7 +13659,7 @@
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:S22"/>
+      <selection activeCell="M28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13700,7 +13700,7 @@
       <c r="R1" s="80"/>
       <c r="S1" s="80"/>
     </row>
-    <row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -13752,7 +13752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>12360000</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>17760000</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -15368,13 +15368,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:I1"/>
+      <selection pane="bottomRight" activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15391,16 +15391,16 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>568</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100"/>
       <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
@@ -15415,7 +15415,7 @@
       <c r="R1" s="80"/>
       <c r="S1" s="80"/>
     </row>
-    <row r="2" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -15467,7 +15467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -16295,7 +16295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -16387,7 +16387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -16479,7 +16479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -16571,7 +16571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -16755,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -17119,7 +17119,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -17179,7 +17179,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
@@ -17239,12 +17239,11 @@
         <v>983</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -17281,7 +17280,7 @@
       <pane xSplit="36" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V25" sqref="V25"/>
+      <selection pane="bottomRight" activeCell="AA39" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17312,13 +17311,13 @@
       <c r="J1" s="102" t="s">
         <v>570</v>
       </c>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="96"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="100"/>
       <c r="S1" s="77" t="s">
         <v>0</v>
       </c>
@@ -17346,7 +17345,7 @@
       <c r="AI1" s="101"/>
       <c r="AJ1" s="101"/>
     </row>
-    <row r="2" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -17447,7 +17446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -17558,7 +17557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -17669,7 +17668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -17780,7 +17779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -17891,7 +17890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -18002,7 +18001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -18113,7 +18112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -18224,7 +18223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -18335,7 +18334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -18446,7 +18445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -18557,7 +18556,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -18668,7 +18667,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -18779,7 +18778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -18890,7 +18889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -19001,7 +19000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -19112,7 +19111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -19223,7 +19222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -19334,7 +19333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -19445,7 +19444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -19556,7 +19555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -19667,7 +19666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2018</v>
       </c>
@@ -19841,13 +19840,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21:S21"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19864,16 +19863,16 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>1001</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
       <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
@@ -19888,7 +19887,7 @@
       <c r="R1" s="80"/>
       <c r="S1" s="80"/>
     </row>
-    <row r="2" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -19940,7 +19939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -20032,7 +20031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -20124,7 +20123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -20216,7 +20215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -20308,7 +20307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -20400,7 +20399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -20492,7 +20491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -20584,7 +20583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -20676,7 +20675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -20768,7 +20767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -20860,7 +20859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -20952,7 +20951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -21044,7 +21043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -21136,7 +21135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -21228,7 +21227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -21320,7 +21319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -21412,7 +21411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -21472,7 +21471,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -21532,7 +21531,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -21592,7 +21591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -21652,17 +21651,16 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -21725,13 +21723,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:S1"/>
+      <selection pane="bottomRight" activeCell="U22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21748,16 +21746,16 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>1014</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
       <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
@@ -21772,7 +21770,7 @@
       <c r="R1" s="80"/>
       <c r="S1" s="80"/>
     </row>
-    <row r="2" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -21824,7 +21822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -21916,7 +21914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -22008,7 +22006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -22100,7 +22098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -22192,7 +22190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -22284,7 +22282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -22376,7 +22374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -22468,7 +22466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -22560,7 +22558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -22652,7 +22650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -22744,7 +22742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -22836,7 +22834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -22928,7 +22926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -23020,7 +23018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -23112,7 +23110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -23204,7 +23202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -23296,7 +23294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -23356,7 +23354,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -23416,7 +23414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -23476,7 +23474,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -23536,17 +23534,16 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -23609,13 +23606,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY25"/>
+  <dimension ref="A1:AY24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="51" ySplit="2" topLeftCell="AZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AZ1" sqref="AZ1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB5" sqref="AB5:AY23"/>
+      <selection pane="bottomRight" activeCell="AD32" sqref="AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23634,36 +23631,36 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>1113</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="102" t="s">
         <v>661</v>
       </c>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
       <c r="Q1" s="105"/>
-      <c r="R1" s="99" t="s">
+      <c r="R1" s="97" t="s">
         <v>570</v>
       </c>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="100"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="98"/>
       <c r="AA1" s="77" t="s">
         <v>0</v>
       </c>
@@ -23698,7 +23695,7 @@
       <c r="AX1" s="101"/>
       <c r="AY1" s="101"/>
     </row>
-    <row r="2" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -23846,7 +23843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -24002,7 +23999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -24158,7 +24155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -24314,7 +24311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -24470,7 +24467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -24626,7 +24623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -24782,7 +24779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -24938,7 +24935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -25094,7 +25091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -25250,7 +25247,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -25406,7 +25403,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -25562,7 +25559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -25718,7 +25715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -25874,7 +25871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -26030,7 +26027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -26186,7 +26183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -26342,7 +26339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -26498,7 +26495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -26654,7 +26651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -26810,7 +26807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -26966,7 +26963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
@@ -27118,12 +27115,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="AA1:AA2"/>
@@ -27158,13 +27154,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="36" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:I2"/>
+      <selection pane="bottomRight" activeCell="W36" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27182,26 +27178,26 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>1113</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="102" t="s">
         <v>570</v>
       </c>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="100"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="98"/>
       <c r="S1" s="77" t="s">
         <v>0</v>
       </c>
@@ -27229,7 +27225,7 @@
       <c r="AI1" s="101"/>
       <c r="AJ1" s="101"/>
     </row>
-    <row r="2" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -27330,7 +27326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -27441,7 +27437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -27552,7 +27548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -27663,7 +27659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -27774,7 +27770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -27885,7 +27881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -27996,7 +27992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -28107,7 +28103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -28218,7 +28214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -28329,7 +28325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -28440,7 +28436,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -28551,7 +28547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -28662,7 +28658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -28773,7 +28769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -28884,7 +28880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -28995,7 +28991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -29106,7 +29102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -29217,7 +29213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -29328,7 +29324,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -29439,7 +29435,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -29550,7 +29546,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
@@ -29661,12 +29657,11 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="AC1:AJ1"/>
@@ -29715,13 +29710,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:S2"/>
+      <selection pane="bottomRight" activeCell="P29" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29738,16 +29733,16 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>570</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
       <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
@@ -29762,7 +29757,7 @@
       <c r="R1" s="101"/>
       <c r="S1" s="101"/>
     </row>
-    <row r="2" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -29814,7 +29809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -29906,7 +29901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -29998,7 +29993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -30090,7 +30085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -30178,7 +30173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -30266,7 +30261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -30354,7 +30349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -30442,7 +30437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -30530,7 +30525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -30618,7 +30613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -30706,7 +30701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -30794,7 +30789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -30882,7 +30877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -30970,7 +30965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -31058,7 +31053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -31146,7 +31141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -31234,7 +31229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -31290,7 +31285,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -31346,7 +31341,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -31402,7 +31397,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -31458,7 +31453,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
@@ -31514,12 +31509,11 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:I1"/>
@@ -31556,7 +31550,7 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:I2"/>
+      <selection pane="bottomRight" activeCell="P29" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31573,16 +31567,16 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>1113</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
       <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
@@ -31597,7 +31591,7 @@
       <c r="R1" s="101"/>
       <c r="S1" s="101"/>
     </row>
-    <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -31649,7 +31643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -31733,7 +31727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -31817,7 +31811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -31901,7 +31895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -31985,7 +31979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -32069,7 +32063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -32153,7 +32147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -32237,7 +32231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -32321,7 +32315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -32405,7 +32399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -32489,7 +32483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -32573,7 +32567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -32657,7 +32651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -32741,7 +32735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -32825,7 +32819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -32909,7 +32903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -32993,7 +32987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -33053,7 +33047,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -33113,7 +33107,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -33173,7 +33167,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -33263,13 +33257,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4:S22"/>
+      <selection pane="bottomRight" activeCell="V24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33286,16 +33280,16 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>1224</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
       <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
@@ -33310,7 +33304,7 @@
       <c r="R1" s="101"/>
       <c r="S1" s="101"/>
     </row>
-    <row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -33362,7 +33356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -33454,7 +33448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -33546,7 +33540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -33638,7 +33632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -33730,7 +33724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -33822,7 +33816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -33914,7 +33908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -34006,7 +34000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -34098,7 +34092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -34190,7 +34184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -34282,7 +34276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -34374,7 +34368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -34466,7 +34460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -34558,7 +34552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -34650,7 +34644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -34742,7 +34736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -34834,7 +34828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -34894,7 +34888,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -34954,7 +34948,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -35014,7 +35008,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -35074,17 +35068,16 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -35115,13 +35108,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="S32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35138,16 +35131,16 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>568</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100"/>
       <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
@@ -35162,7 +35155,7 @@
       <c r="R1" s="80"/>
       <c r="S1" s="80"/>
     </row>
-    <row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -35214,7 +35207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -35298,7 +35291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -35382,7 +35375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -35466,7 +35459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -35550,7 +35543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -35634,7 +35627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -35718,7 +35711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -35802,7 +35795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -35886,7 +35879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -35970,7 +35963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -36054,7 +36047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -36138,7 +36131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -36222,7 +36215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -36306,7 +36299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -36390,7 +36383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -36474,7 +36467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -36558,7 +36551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -36618,7 +36611,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -36678,7 +36671,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -36738,7 +36731,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -36798,7 +36791,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
@@ -36858,12 +36851,11 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -36900,7 +36892,7 @@
       <pane xSplit="36" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB3" sqref="AB3"/>
+      <selection pane="bottomRight" activeCell="V28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36965,7 +36957,7 @@
       <c r="AI1" s="85"/>
       <c r="AJ1" s="85"/>
     </row>
-    <row r="2" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -37066,7 +37058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -37177,7 +37169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -37288,7 +37280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -37399,7 +37391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -37510,7 +37502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -37621,7 +37613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -37732,7 +37724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -37843,7 +37835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -37954,7 +37946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -38065,7 +38057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -38176,7 +38168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -38287,7 +38279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -38398,7 +38390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -38509,7 +38501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -38620,7 +38612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -38731,7 +38723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -38842,7 +38834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -38953,7 +38945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -39064,7 +39056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -39175,7 +39167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -39338,13 +39330,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:S2"/>
+      <selection pane="bottomRight" activeCell="R34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39361,16 +39353,16 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>1350</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100"/>
       <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
@@ -39385,7 +39377,7 @@
       <c r="R1" s="101"/>
       <c r="S1" s="101"/>
     </row>
-    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -39437,7 +39429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -39505,7 +39497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -39573,7 +39565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -39641,7 +39633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -39709,7 +39701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -39777,7 +39769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -39845,7 +39837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -39913,7 +39905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -39981,7 +39973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -40049,7 +40041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -40117,7 +40109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -40185,7 +40177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -40253,7 +40245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -40321,7 +40313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -40389,7 +40381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -40457,7 +40449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -40525,7 +40517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -40585,7 +40577,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -40645,7 +40637,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -40705,7 +40697,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -40765,7 +40757,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
@@ -40825,12 +40817,11 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -40893,13 +40884,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN25"/>
+  <dimension ref="A1:AN24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="40" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AO1" sqref="AO1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN18" sqref="AN18"/>
+      <selection pane="bottomRight" activeCell="AB30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40922,57 +40913,57 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>661</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
       <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="96" t="s">
         <v>1113</v>
       </c>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
       <c r="U1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="94" t="s">
+      <c r="V1" s="96" t="s">
         <v>1350</v>
       </c>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="96"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="100"/>
       <c r="AE1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="94" t="s">
+      <c r="AF1" s="96" t="s">
         <v>568</v>
       </c>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="96"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="100"/>
     </row>
-    <row r="2" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -41074,7 +41065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -41200,7 +41191,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -41326,7 +41317,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -41452,7 +41443,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -41578,7 +41569,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -41704,7 +41695,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -41830,7 +41821,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -41956,7 +41947,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -42082,7 +42073,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -42208,7 +42199,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -42334,7 +42325,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -42460,7 +42451,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -42586,7 +42577,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -42712,7 +42703,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -42838,7 +42829,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -42964,7 +42955,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -43090,7 +43081,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -43216,7 +43207,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -43342,7 +43333,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -43468,7 +43459,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -43594,17 +43585,16 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="AE1:AE2"/>
@@ -43765,10 +43755,10 @@
       <pane xSplit="36" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:J22"/>
+      <selection pane="bottomRight" activeCell="Q31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="9" width="10.85546875" customWidth="1"/>
@@ -43780,7 +43770,7 @@
     <col min="29" max="36" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
@@ -43834,7 +43824,7 @@
       <c r="AI1" s="101"/>
       <c r="AJ1" s="101"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
       <c r="B2" s="60">
         <v>0.01</v>
@@ -43936,7 +43926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1999</v>
       </c>
@@ -44046,7 +44036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2000</v>
       </c>
@@ -44156,7 +44146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2001</v>
       </c>
@@ -44266,7 +44256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2002</v>
       </c>
@@ -44376,7 +44366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2003</v>
       </c>
@@ -44486,7 +44476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2004</v>
       </c>
@@ -44596,7 +44586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2005</v>
       </c>
@@ -44706,7 +44696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2006</v>
       </c>
@@ -44816,7 +44806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2007</v>
       </c>
@@ -44926,7 +44916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2008</v>
       </c>
@@ -45036,7 +45026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2009</v>
       </c>
@@ -45146,7 +45136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2010</v>
       </c>
@@ -45256,7 +45246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>2011</v>
       </c>
@@ -45366,7 +45356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>2012</v>
       </c>
@@ -45476,7 +45466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>2013</v>
       </c>
@@ -45586,7 +45576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>2014</v>
       </c>
@@ -45696,7 +45686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2015</v>
       </c>
@@ -45806,7 +45796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>2016</v>
       </c>
@@ -45916,7 +45906,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2017</v>
       </c>
@@ -46026,7 +46016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>2018</v>
       </c>
@@ -46160,7 +46150,7 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46177,16 +46167,16 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>661</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
       <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
@@ -46201,7 +46191,7 @@
       <c r="R1" s="108"/>
       <c r="S1" s="109"/>
     </row>
-    <row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -46253,7 +46243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -46341,7 +46331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -46429,7 +46419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -46517,7 +46507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -46605,7 +46595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -46693,7 +46683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -46781,7 +46771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -46869,7 +46859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -46957,7 +46947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -47045,7 +47035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -47133,7 +47123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -47221,7 +47211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -47309,7 +47299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -47397,7 +47387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -47485,7 +47475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -47573,7 +47563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -47661,7 +47651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -47721,7 +47711,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -47781,7 +47771,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -47841,7 +47831,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -47937,7 +47927,7 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="Q28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -47954,16 +47944,16 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>570</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
       <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
@@ -47978,7 +47968,7 @@
       <c r="R1" s="101"/>
       <c r="S1" s="101"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -48030,7 +48020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -48118,7 +48108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -48206,7 +48196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -48294,7 +48284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -48382,7 +48372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -48470,7 +48460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -48558,7 +48548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -48646,7 +48636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -48734,7 +48724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -48822,7 +48812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -48910,7 +48900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -48998,7 +48988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -49086,7 +49076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -49174,7 +49164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -49262,7 +49252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -49350,7 +49340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -49438,7 +49428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -49522,7 +49512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -49606,7 +49596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -49690,7 +49680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -49879,13 +49869,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN25"/>
+  <dimension ref="A1:AN24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="40" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AO1" sqref="AO1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X31" sqref="X31"/>
+      <selection pane="bottomRight" activeCell="X31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -49908,57 +49898,57 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>661</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
       <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="96" t="s">
         <v>1113</v>
       </c>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
       <c r="U1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="94" t="s">
+      <c r="V1" s="96" t="s">
         <v>1014</v>
       </c>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="100"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="98"/>
       <c r="AE1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="94" t="s">
+      <c r="AF1" s="96" t="s">
         <v>1350</v>
       </c>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="96"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="100"/>
     </row>
-    <row r="2" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -50060,7 +50050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -50186,7 +50176,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -50312,7 +50302,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -50438,7 +50428,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -50564,7 +50554,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -50690,7 +50680,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -50816,7 +50806,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -50942,7 +50932,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -51068,7 +51058,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -51194,7 +51184,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -51320,7 +51310,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -51446,7 +51436,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -51572,7 +51562,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -51698,7 +51688,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -51824,7 +51814,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -51950,7 +51940,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -52076,7 +52066,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -52202,7 +52192,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -52328,7 +52318,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -52454,7 +52444,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -52580,7 +52570,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
@@ -52706,12 +52696,11 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="AF1:AM1"/>
@@ -52752,10 +52741,10 @@
       <pane xSplit="36" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="9" width="10.85546875" customWidth="1"/>
@@ -52767,7 +52756,7 @@
     <col min="29" max="36" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
@@ -52821,7 +52810,7 @@
       <c r="AI1" s="108"/>
       <c r="AJ1" s="108"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
       <c r="B2" s="60">
         <v>0.01</v>
@@ -52923,7 +52912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1999</v>
       </c>
@@ -53033,7 +53022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2000</v>
       </c>
@@ -53143,7 +53132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2001</v>
       </c>
@@ -53253,7 +53242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2002</v>
       </c>
@@ -53363,7 +53352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2003</v>
       </c>
@@ -53473,7 +53462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2004</v>
       </c>
@@ -53583,7 +53572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2005</v>
       </c>
@@ -53693,7 +53682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2006</v>
       </c>
@@ -53803,7 +53792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2007</v>
       </c>
@@ -53913,7 +53902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2008</v>
       </c>
@@ -54023,7 +54012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2009</v>
       </c>
@@ -54133,7 +54122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2010</v>
       </c>
@@ -54243,7 +54232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>2011</v>
       </c>
@@ -54353,7 +54342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>2012</v>
       </c>
@@ -54463,7 +54452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>2013</v>
       </c>
@@ -54573,7 +54562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>2014</v>
       </c>
@@ -54683,7 +54672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2015</v>
       </c>
@@ -54793,7 +54782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>2016</v>
       </c>
@@ -54903,7 +54892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2017</v>
       </c>
@@ -55013,7 +55002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>2018</v>
       </c>
@@ -55123,7 +55112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>2019</v>
       </c>
@@ -55253,21 +55242,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1592</v>
       </c>
@@ -55278,7 +55267,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="69">
         <v>1</v>
       </c>
@@ -55289,7 +55278,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69">
         <v>2</v>
       </c>
@@ -55300,7 +55289,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="69">
         <v>3</v>
       </c>
@@ -55311,7 +55300,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69">
         <v>4</v>
       </c>
@@ -55322,7 +55311,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="69">
         <v>5</v>
       </c>
@@ -55333,7 +55322,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69">
         <v>6</v>
       </c>
@@ -55369,7 +55358,7 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -55410,7 +55399,7 @@
       <c r="R1" s="80"/>
       <c r="S1" s="80"/>
     </row>
-    <row r="2" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -55462,7 +55451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -55554,7 +55543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -55646,7 +55635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -55738,7 +55727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -55830,7 +55819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -55922,7 +55911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -56014,7 +56003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -56106,7 +56095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -56198,7 +56187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -56290,7 +56279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -56382,7 +56371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -56474,7 +56463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -56566,7 +56555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -56658,7 +56647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -56750,7 +56739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -56842,7 +56831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -56934,7 +56923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -56994,7 +56983,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -57054,7 +57043,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -57114,7 +57103,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -58138,7 +58127,7 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="A1:S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -58179,7 +58168,7 @@
       <c r="R1" s="80"/>
       <c r="S1" s="80"/>
     </row>
-    <row r="2" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -58231,7 +58220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -58323,7 +58312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -58415,7 +58404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -58507,7 +58496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -58599,7 +58588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -58691,7 +58680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -58783,7 +58772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -58851,7 +58840,7 @@
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
     </row>
-    <row r="10" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2005</v>
       </c>
@@ -58943,7 +58932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2006</v>
       </c>
@@ -59035,7 +59024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2007</v>
       </c>
@@ -59127,7 +59116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2008</v>
       </c>
@@ -59219,7 +59208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2009</v>
       </c>
@@ -59311,7 +59300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2010</v>
       </c>
@@ -59403,7 +59392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2011</v>
       </c>
@@ -59495,7 +59484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2012</v>
       </c>
@@ -59587,7 +59576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
@@ -59679,7 +59668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2014</v>
       </c>
@@ -59739,7 +59728,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2015</v>
       </c>
@@ -59799,7 +59788,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2016</v>
       </c>
@@ -59859,7 +59848,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2017</v>
       </c>
@@ -59919,7 +59908,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2018</v>
       </c>
@@ -59979,7 +59968,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2019</v>
       </c>
@@ -60078,7 +60067,7 @@
       <pane xSplit="50" ySplit="2" topLeftCell="AY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AY1" sqref="AY1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="T35" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -60099,7 +60088,7 @@
     <col min="42" max="49" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>8</v>
       </c>
@@ -60156,7 +60145,7 @@
       <c r="AV1" s="88"/>
       <c r="AW1" s="88"/>
     </row>
-    <row r="2" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -60293,7 +60282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -60450,7 +60439,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -60607,7 +60596,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -60764,7 +60753,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -60921,7 +60910,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -61078,7 +61067,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -61235,7 +61224,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -61392,7 +61381,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -61549,7 +61538,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -61706,7 +61695,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -61863,7 +61852,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -62020,7 +62009,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -62177,7 +62166,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -62334,7 +62323,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -62491,7 +62480,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -62648,7 +62637,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -62805,7 +62794,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -62962,7 +62951,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -63119,7 +63108,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -63276,7 +63265,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -63433,7 +63422,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
@@ -63590,7 +63579,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -63604,7 +63593,7 @@
       <c r="AP24" s="5"/>
       <c r="AQ24" s="5"/>
     </row>
-    <row r="25" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AO25" s="6"/>
     </row>
     <row r="28" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -64406,7 +64395,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM14 AM12">
+  <conditionalFormatting sqref="AM12 AM14">
     <cfRule type="containsText" dxfId="62" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(AM12))))</formula>
     </cfRule>
@@ -64717,10 +64706,10 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="W27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="15" customWidth="1"/>
     <col min="2" max="9" width="12" style="25" customWidth="1"/>
@@ -64731,7 +64720,7 @@
     <col min="28" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="91" t="s">
         <v>8</v>
       </c>
@@ -64766,7 +64755,7 @@
       <c r="Z1" s="92"/>
       <c r="AA1" s="92"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -64849,7 +64838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2002</v>
       </c>
@@ -64932,7 +64921,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2003</v>
       </c>
@@ -65015,7 +65004,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>2004</v>
       </c>
@@ -65098,7 +65087,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>2005</v>
       </c>
@@ -65181,7 +65170,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>2006</v>
       </c>
@@ -65264,7 +65253,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>2007</v>
       </c>
@@ -65347,7 +65336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2008</v>
       </c>
@@ -65430,7 +65419,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>2009</v>
       </c>
@@ -65513,7 +65502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>2010</v>
       </c>
@@ -65596,7 +65585,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>2011</v>
       </c>
@@ -65679,7 +65668,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>2012</v>
       </c>
@@ -65762,7 +65751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>2013</v>
       </c>
@@ -65845,7 +65834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>2014</v>
       </c>
@@ -65928,7 +65917,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>2015</v>
       </c>
@@ -66011,7 +66000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>2016</v>
       </c>
@@ -66094,7 +66083,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>2017</v>
       </c>
@@ -66177,7 +66166,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>2018</v>
       </c>
@@ -66260,7 +66249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>2019</v>
       </c>
@@ -66343,7 +66332,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
@@ -66367,7 +66356,7 @@
       <c r="Q21" s="92"/>
       <c r="R21" s="92"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>0</v>
       </c>
@@ -66423,7 +66412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>2002</v>
       </c>
@@ -66479,7 +66468,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>2003</v>
       </c>
@@ -66535,7 +66524,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>2004</v>
       </c>
@@ -66591,7 +66580,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>2005</v>
       </c>
@@ -66647,7 +66636,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>2006</v>
       </c>
@@ -66703,7 +66692,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>2007</v>
       </c>
@@ -66759,7 +66748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>2008</v>
       </c>
@@ -66815,7 +66804,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>2009</v>
       </c>
@@ -66871,7 +66860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>2010</v>
       </c>
@@ -66927,7 +66916,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>2011</v>
       </c>
@@ -66983,7 +66972,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>2012</v>
       </c>
@@ -67039,7 +67028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>2013</v>
       </c>
@@ -67095,7 +67084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>2014</v>
       </c>
@@ -67151,7 +67140,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>2015</v>
       </c>
@@ -67207,7 +67196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>2016</v>
       </c>
@@ -67263,7 +67252,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>2017</v>
       </c>
@@ -67319,7 +67308,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>2018</v>
       </c>
@@ -67375,7 +67364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>2019</v>
       </c>
@@ -67449,11 +67438,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="39" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AN1" sqref="AN1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y18" sqref="Y18"/>
+      <selection pane="bottomRight" activeCell="AC36" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -67488,16 +67477,16 @@
       <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="96" t="s">
         <v>569</v>
       </c>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="96"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="100"/>
       <c r="T1" s="33"/>
       <c r="U1" s="77" t="s">
         <v>0</v>
@@ -67527,7 +67516,7 @@
       <c r="AL1" s="80"/>
       <c r="AM1" s="80"/>
     </row>
-    <row r="2" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -67631,7 +67620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -67750,7 +67739,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -67839,7 +67828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -67874,16 +67863,16 @@
       <c r="K5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="94" t="s">
+      <c r="L5" s="96" t="s">
         <v>570</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="33"/>
       <c r="U5" s="9">
         <v>2001</v>
@@ -67941,7 +67930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -68055,7 +68044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -68174,7 +68163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -68263,7 +68252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -68295,19 +68284,19 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K9" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="94" t="s">
+      <c r="K9" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="96" t="s">
         <v>661</v>
       </c>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="100"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="98"/>
       <c r="T9" s="33"/>
       <c r="U9" s="9">
         <v>2005</v>
@@ -68365,7 +68354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -68397,7 +68386,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K10" s="98"/>
+      <c r="K10" s="95"/>
       <c r="L10" s="11" t="s">
         <v>1</v>
       </c>
@@ -68479,7 +68468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -68598,7 +68587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -68687,7 +68676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -68780,7 +68769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -68873,7 +68862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -68962,7 +68951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -69051,7 +69040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -69140,7 +69129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -69229,7 +69218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -69289,7 +69278,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -69349,7 +69338,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -69409,7 +69398,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -69469,7 +69458,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
@@ -69534,18 +69523,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AF1:AM1"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:S5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:AC1"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:S9"/>
-    <mergeCell ref="AF1:AM1"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:S5"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:I23">
     <cfRule type="containsText" dxfId="42" priority="35" operator="containsText" text="*-">
@@ -69615,13 +69604,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -69662,7 +69651,7 @@
       <c r="R1" s="80"/>
       <c r="S1" s="80"/>
     </row>
-    <row r="2" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -69714,7 +69703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -69806,7 +69795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -69898,7 +69887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -69990,7 +69979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -70082,7 +70071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -70174,7 +70163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -70266,7 +70255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -70358,7 +70347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -70450,7 +70439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -70542,7 +70531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -70634,7 +70623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -70726,7 +70715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -70818,7 +70807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -70910,7 +70899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -71002,7 +70991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -71094,7 +71083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -71186,7 +71175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -71246,7 +71235,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -71306,7 +71295,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -71366,17 +71355,16 @@
         <v>780</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -71413,7 +71401,7 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -71430,16 +71418,16 @@
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100"/>
       <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
@@ -71454,7 +71442,7 @@
       <c r="R1" s="80"/>
       <c r="S1" s="80"/>
     </row>
-    <row r="2" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
@@ -71506,7 +71494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
@@ -71598,7 +71586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -71690,7 +71678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
@@ -71782,7 +71770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -71874,7 +71862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -71966,7 +71954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
@@ -72058,7 +72046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -72150,7 +72138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
@@ -72242,7 +72230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
@@ -72334,7 +72322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
@@ -72426,7 +72414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
@@ -72518,7 +72506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -72610,7 +72598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -72702,7 +72690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -72794,7 +72782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -72886,7 +72874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -72978,7 +72966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -73038,7 +73026,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -73098,7 +73086,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -73158,7 +73146,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>

--- a/Collections/Евро/Регулярный_чекан_с_тиражами_1999-н.в.xlsx
+++ b/Collections/Евро/Регулярный_чекан_с_тиражами_1999-н.в.xlsx
@@ -12,16 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Португалия" sheetId="20" r:id="rId1"/>
-    <sheet name="Сан-Марино" sheetId="19" r:id="rId2"/>
-    <sheet name="Словакия" sheetId="17" r:id="rId3"/>
-    <sheet name="Словения" sheetId="18" r:id="rId4"/>
-    <sheet name="Словения_тиражи" sheetId="32" r:id="rId5"/>
-    <sheet name="Финляндия" sheetId="21" r:id="rId6"/>
-    <sheet name="Франция" sheetId="22" r:id="rId7"/>
-    <sheet name="Эстония" sheetId="23" r:id="rId8"/>
-    <sheet name="Эстония_тиражи" sheetId="33" r:id="rId9"/>
-    <sheet name="Сайты" sheetId="30" r:id="rId10"/>
+    <sheet name="Сан-Марино" sheetId="19" r:id="rId1"/>
+    <sheet name="Словакия" sheetId="17" r:id="rId2"/>
+    <sheet name="Словения" sheetId="18" r:id="rId3"/>
+    <sheet name="Словения_тиражи" sheetId="32" r:id="rId4"/>
+    <sheet name="Финляндия" sheetId="21" r:id="rId5"/>
+    <sheet name="Франция" sheetId="22" r:id="rId6"/>
+    <sheet name="Эстония" sheetId="23" r:id="rId7"/>
+    <sheet name="Эстония_тиражи" sheetId="33" r:id="rId8"/>
+    <sheet name="Сайты" sheetId="30" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,167 +35,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-    <author>Автор</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Португалии (Лиссабон)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Португалии (Лиссабон)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -357,7 +195,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -518,7 +356,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -588,7 +426,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1139,7 +977,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1300,7 +1138,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1461,7 +1299,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1531,7 +1369,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -2083,7 +1921,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="361">
   <si>
     <t>Год</t>
   </si>
@@ -2133,9 +1971,6 @@
     <t>5.025.000</t>
   </si>
   <si>
-    <t>24.000</t>
-  </si>
-  <si>
     <t>17.000</t>
   </si>
   <si>
@@ -2208,21 +2043,12 @@
     <t>20.000.000</t>
   </si>
   <si>
-    <t>30.000</t>
-  </si>
-  <si>
     <t>LT</t>
   </si>
   <si>
     <t>63.000</t>
   </si>
   <si>
-    <t>5.030.000</t>
-  </si>
-  <si>
-    <t>1.030.000</t>
-  </si>
-  <si>
     <t>NL</t>
   </si>
   <si>
@@ -2244,217 +2070,10 @@
     <t>9.000.000</t>
   </si>
   <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>278.176.172</t>
-  </si>
-  <si>
-    <t>324.446.590</t>
-  </si>
-  <si>
-    <t>234.582.047</t>
-  </si>
-  <si>
-    <t>220.359.835</t>
-  </si>
-  <si>
-    <t>147.481.038</t>
-  </si>
-  <si>
-    <t>152.017.133</t>
-  </si>
-  <si>
-    <t>100.298.135</t>
-  </si>
-  <si>
-    <t>62.000.775</t>
-  </si>
-  <si>
     <t>85.000</t>
   </si>
   <si>
-    <t>6.417.000</t>
-  </si>
-  <si>
-    <t>9.578.600</t>
-  </si>
-  <si>
-    <t>10.438.000</t>
-  </si>
-  <si>
-    <t>16.291.875</t>
-  </si>
-  <si>
-    <t>6.064.750</t>
-  </si>
-  <si>
-    <t>75.085.000</t>
-  </si>
-  <si>
-    <t>1.085.000</t>
-  </si>
-  <si>
-    <t>40.085.000</t>
-  </si>
-  <si>
-    <t>20.085.000</t>
-  </si>
-  <si>
-    <t>40.070.000</t>
-  </si>
-  <si>
-    <t>10.070.000</t>
-  </si>
-  <si>
     <t>30.070.000</t>
-  </si>
-  <si>
-    <t>25.070.000</t>
-  </si>
-  <si>
-    <t>20.070.000</t>
-  </si>
-  <si>
-    <t>30.029.500</t>
-  </si>
-  <si>
-    <t>1.029.500</t>
-  </si>
-  <si>
-    <t>20.029.500</t>
-  </si>
-  <si>
-    <t>105.024.000</t>
-  </si>
-  <si>
-    <t>10.024.000</t>
-  </si>
-  <si>
-    <t>25.024.000</t>
-  </si>
-  <si>
-    <t>4.959.400</t>
-  </si>
-  <si>
-    <t>75.030.000</t>
-  </si>
-  <si>
-    <t>35.030.000</t>
-  </si>
-  <si>
-    <t>25.030.000</t>
-  </si>
-  <si>
-    <t>60.038.000</t>
-  </si>
-  <si>
-    <t>45.038.000</t>
-  </si>
-  <si>
-    <t>25.038.000</t>
-  </si>
-  <si>
-    <t>10.038.000</t>
-  </si>
-  <si>
-    <t>20.038.000</t>
-  </si>
-  <si>
-    <t>20.048.000</t>
-  </si>
-  <si>
-    <t>38.000</t>
-  </si>
-  <si>
-    <t>15.044.000</t>
-  </si>
-  <si>
-    <t>10.044.000</t>
-  </si>
-  <si>
-    <t>5.044.000</t>
-  </si>
-  <si>
-    <t>44.000</t>
-  </si>
-  <si>
-    <t>20.044.000</t>
-  </si>
-  <si>
-    <t>20.051.000</t>
-  </si>
-  <si>
-    <t>30.044.000</t>
-  </si>
-  <si>
-    <t>25.044.000</t>
-  </si>
-  <si>
-    <t>5.049.000</t>
-  </si>
-  <si>
-    <t>50.044.000</t>
-  </si>
-  <si>
-    <t>35.044.000</t>
-  </si>
-  <si>
-    <t>49.000</t>
-  </si>
-  <si>
-    <t>20.022.500</t>
-  </si>
-  <si>
-    <t>22.500</t>
-  </si>
-  <si>
-    <t>9.027.500</t>
-  </si>
-  <si>
-    <t>40.029.500</t>
-  </si>
-  <si>
-    <t>29.500</t>
-  </si>
-  <si>
-    <t>15.029.500</t>
-  </si>
-  <si>
-    <t>15.035.500</t>
-  </si>
-  <si>
-    <t>25.029.500</t>
-  </si>
-  <si>
-    <t>2.029.500</t>
-  </si>
-  <si>
-    <t>35.034.500</t>
-  </si>
-  <si>
-    <t>55.029.500</t>
-  </si>
-  <si>
-    <t>35.029.500</t>
-  </si>
-  <si>
-    <t>20.034.500</t>
-  </si>
-  <si>
-    <t>27.000</t>
-  </si>
-  <si>
-    <t>37.572.200</t>
-  </si>
-  <si>
-    <t>19.331.000</t>
-  </si>
-  <si>
-    <t>15.027.000</t>
-  </si>
-  <si>
-    <t>25.032.000</t>
   </si>
   <si>
     <t>302.400</t>
@@ -3785,15 +3404,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3984,9 +3595,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="23"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="22" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="21"/>
+    <tableColumn id="1" name="№" dataDxfId="22"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="21" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4261,1969 +3872,6 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="9" width="4.7265625" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
-    <col min="11" max="11" width="5.7265625" customWidth="1"/>
-    <col min="12" max="19" width="13.1796875" customWidth="1"/>
-    <col min="20" max="27" width="8.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="K1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-    </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9">
-        <v>2</v>
-      </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="R2" s="5">
-        <v>1</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="10" t="str">
-        <f>IF(OR(AND(B3&gt;1,B3&lt;&gt;"-"),AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-"),AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-      <c r="K3" s="6">
-        <v>1999</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="3">
-        <f t="shared" ref="T3:AA3" si="0">IF(B3&lt;&gt;"-",B3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="10" t="str">
-        <f t="shared" ref="J4:J22" si="1">IF(OR(AND(B4&gt;1,B4&lt;&gt;"-"),AND(C4&gt;1,C4&lt;&gt;"-"),AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-"),AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-      <c r="K4" s="6">
-        <v>2000</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" ref="T4:AA4" si="2">IF(B4&lt;&gt;"-",B4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K5" s="6">
-        <v>2001</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="3">
-        <f t="shared" ref="T5:AA5" si="3">IF(B5&lt;&gt;"-",B5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
-      <c r="J6" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Есть на обмен</v>
-      </c>
-      <c r="K6" s="6">
-        <v>2002</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" s="3">
-        <f t="shared" ref="T6:AA6" si="4">IF(B6&lt;&gt;"-",B6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="W6" s="3">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="X6" s="3">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Y6" s="3">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="Z6" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K7" s="6">
-        <v>2003</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="T7" s="3">
-        <f t="shared" ref="T7:AA7" si="5">IF(B7&lt;&gt;"-",B7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AA7" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K8" s="6">
-        <v>2004</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="T8" s="3">
-        <f t="shared" ref="T8:AA8" si="6">IF(B8&lt;&gt;"-",B8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K9" s="6">
-        <v>2005</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="T9" s="3">
-        <f t="shared" ref="T9:AA9" si="7">IF(B9&lt;&gt;"-",B9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA9" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K10" s="6">
-        <v>2006</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="T10" s="3">
-        <f t="shared" ref="T10:AA10" si="8">IF(B10&lt;&gt;"-",B10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Y10" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K11" s="6">
-        <v>2007</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="3">
-        <f t="shared" ref="T11:AA11" si="9">IF(B11&lt;&gt;"-",B11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K12" s="6">
-        <v>2008</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="T12" s="3">
-        <f t="shared" ref="T12:AA12" si="10">IF(B12&lt;&gt;"-",B12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AA12" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K13" s="6">
-        <v>2009</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="P13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="T13" s="3">
-        <f t="shared" ref="T13:AA13" si="11">IF(B13&lt;&gt;"-",B13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Y13" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K14" s="6">
-        <v>2010</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="P14" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="T14" s="3">
-        <f t="shared" ref="T14:AA14" si="12">IF(B14&lt;&gt;"-",B14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K15" s="6">
-        <v>2011</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="T15" s="3">
-        <f t="shared" ref="T15:AA15" si="13">IF(B15&lt;&gt;"-",B15,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U15" s="3">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V15" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K16" s="6">
-        <v>2012</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="T16" s="3">
-        <f t="shared" ref="T16:AA16" si="14">IF(B16&lt;&gt;"-",B16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K17" s="6">
-        <v>2013</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="T17" s="3">
-        <f t="shared" ref="T17:AA17" si="15">IF(B17&lt;&gt;"-",B17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K18" s="6">
-        <v>2014</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T18" s="3">
-        <f t="shared" ref="T18:AA18" si="16">IF(B18&lt;&gt;"-",B18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K19" s="6">
-        <v>2015</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="R19" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K20" s="6">
-        <v>2016</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="P20" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="R20" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="S20" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K21" s="6">
-        <v>2017</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="P21" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="S21" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K22" s="6">
-        <v>2018</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="N22" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="P22" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:S1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B3:I22">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>433</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
-  <tableParts count="1">
-    <tablePart r:id="rId8"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="S32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6617,16 +4265,16 @@
         <v>10</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="V6" s="3">
         <f t="shared" si="1"/>
@@ -6689,28 +4337,28 @@
         <v>2003</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="V7" s="3">
         <f t="shared" si="1"/>
@@ -6773,28 +4421,28 @@
         <v>2004</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="V8" s="3">
         <f t="shared" si="1"/>
@@ -6857,28 +4505,28 @@
         <v>2005</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V9" s="3">
         <f t="shared" si="1"/>
@@ -6941,28 +4589,28 @@
         <v>2006</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="V10" s="3">
         <f t="shared" si="1"/>
@@ -7025,28 +4673,28 @@
         <v>2007</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" si="1"/>
@@ -7109,28 +4757,28 @@
         <v>2008</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V12" s="3">
         <f t="shared" si="1"/>
@@ -7193,28 +4841,28 @@
         <v>2009</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V13" s="3">
         <f t="shared" si="1"/>
@@ -7277,28 +4925,28 @@
         <v>2010</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="1"/>
@@ -7361,28 +5009,28 @@
         <v>2011</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="V15" s="3">
         <f t="shared" si="1"/>
@@ -7445,28 +5093,28 @@
         <v>2012</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="V16" s="3">
         <f t="shared" si="1"/>
@@ -7529,28 +5177,28 @@
         <v>2013</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="1"/>
@@ -7613,28 +5261,28 @@
         <v>2014</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="V18" s="3">
         <f t="shared" si="1"/>
@@ -7697,28 +5345,28 @@
         <v>2015</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7757,28 +5405,28 @@
         <v>2016</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="P20" s="21" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7817,28 +5465,28 @@
         <v>2017</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="R21" s="21" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7877,28 +5525,28 @@
         <v>2018</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="R22" s="21" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7937,28 +5585,28 @@
         <v>2019</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="R23" s="21" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7994,7 +5642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U24"/>
   <sheetViews>
@@ -8020,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -8033,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="M1" s="33"/>
       <c r="N1" s="33"/>
@@ -8811,28 +6459,28 @@
         <v>2009</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" ref="T13:U13" si="11">IF(H13&lt;&gt;"-",H13,0)</f>
@@ -8879,28 +6527,28 @@
         <v>2010</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" ref="T14:U14" si="12">IF(H14&lt;&gt;"-",H14,0)</f>
@@ -8947,28 +6595,28 @@
         <v>2011</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" ref="T15:U15" si="13">IF(H15&lt;&gt;"-",H15,0)</f>
@@ -9015,7 +6663,7 @@
         <v>2012</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>11</v>
@@ -9083,28 +6731,28 @@
         <v>2013</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" ref="T17:U17" si="15">IF(H17&lt;&gt;"-",H17,0)</f>
@@ -9151,7 +6799,7 @@
         <v>2014</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="M18" s="17" t="s">
         <v>15</v>
@@ -9219,10 +6867,10 @@
         <v>2015</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>14</v>
@@ -9240,7 +6888,7 @@
         <v>14</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9279,28 +6927,28 @@
         <v>2016</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9339,28 +6987,28 @@
         <v>2017</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9399,28 +7047,28 @@
         <v>2018</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="13" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9459,28 +7107,28 @@
         <v>2019</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="P23" s="20" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="20" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="R23" s="20" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="S23" s="20" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9548,7 +7196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN24"/>
   <sheetViews>
@@ -9580,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -9593,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
@@ -9606,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="W1" s="34"/>
       <c r="X1" s="34"/>
@@ -12413,7 +10061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
@@ -12441,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
@@ -12454,7 +10102,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -12467,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="38" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="U1" s="39"/>
       <c r="V1" s="39"/>
@@ -13477,28 +11125,28 @@
         <v>2007</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="J11" s="12">
         <v>2007</v>
@@ -13614,28 +11262,28 @@
         <v>2008</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="S12" s="12">
         <v>2008</v>
@@ -13697,28 +11345,28 @@
         <v>2009</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" s="12">
         <v>2009</v>
@@ -13807,28 +11455,28 @@
         <v>2010</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="J14" s="12">
         <v>2010</v>
@@ -13917,28 +11565,28 @@
         <v>2011</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="12">
         <v>2011</v>
@@ -14081,28 +11729,28 @@
         <v>2012</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V16" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W16" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y16" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB16" s="18">
         <v>2012</v>
@@ -14191,28 +11839,28 @@
         <v>2013</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U17" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V17" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W17" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X17" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z17" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA17" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB17" s="18">
         <v>2013</v>
@@ -14274,28 +11922,28 @@
         <v>2014</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="S18" s="12">
         <v>2014</v>
@@ -14411,28 +12059,28 @@
         <v>2015</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="W19" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Y19" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AB19" s="18">
         <v>2015</v>
@@ -14548,28 +12196,28 @@
         <v>2016</v>
       </c>
       <c r="AC20" s="17" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="AD20" s="13" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="AE20" s="13" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="AG20" s="13" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="AH20" s="13" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="AI20" s="13" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="AJ20" s="13" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14631,28 +12279,28 @@
         <v>2017</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="V21" s="13" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="Y21" s="13" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="Z21" s="13" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="AA21" s="13" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="AB21" s="6">
         <v>2017</v>
@@ -14750,7 +12398,7 @@
         <v>7</v>
       </c>
       <c r="W22" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X22" s="15" t="s">
         <v>7</v>
@@ -14768,28 +12416,28 @@
         <v>2018</v>
       </c>
       <c r="AC22" s="17" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="AD22" s="17" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="AE22" s="13" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="AF22" s="13" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="AG22" s="13" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="AH22" s="13" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="AI22" s="13" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="AJ22" s="13" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -14808,7 +12456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
@@ -14834,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -14847,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M1" s="39"/>
       <c r="N1" s="39"/>
@@ -14945,28 +12593,28 @@
         <v>1999</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="U3" s="3">
         <f t="shared" ref="U3:U18" si="1">IF(C3&lt;&gt;"-",C3,0)</f>
@@ -15033,28 +12681,28 @@
         <v>2000</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U4" s="3">
         <f t="shared" si="1"/>
@@ -15121,28 +12769,28 @@
         <v>2001</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="U5" s="3">
         <f t="shared" si="1"/>
@@ -15209,28 +12857,28 @@
         <v>2002</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="U6" s="3">
         <f t="shared" si="1"/>
@@ -15297,28 +12945,28 @@
         <v>2003</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="U7" s="3">
         <f t="shared" si="1"/>
@@ -15385,28 +13033,28 @@
         <v>2004</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="1"/>
@@ -15473,28 +13121,28 @@
         <v>2005</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" si="1"/>
@@ -15561,10 +13209,10 @@
         <v>2006</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>8</v>
@@ -15576,13 +13224,13 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>275</v>
+        <v>202</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" si="1"/>
@@ -15649,10 +13297,10 @@
         <v>2007</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>8</v>
@@ -15670,7 +13318,7 @@
         <v>8</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" si="1"/>
@@ -15737,10 +13385,10 @@
         <v>2008</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>8</v>
@@ -15752,13 +13400,13 @@
         <v>8</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U12" s="3">
         <f t="shared" si="1"/>
@@ -15840,13 +13488,13 @@
         <v>8</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>279</v>
+        <v>206</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" si="1"/>
@@ -15913,28 +13561,28 @@
         <v>2010</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
@@ -16001,28 +13649,28 @@
         <v>2011</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" si="1"/>
@@ -16089,28 +13737,28 @@
         <v>2012</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" si="1"/>
@@ -16177,28 +13825,28 @@
         <v>2013</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="1"/>
@@ -16265,28 +13913,28 @@
         <v>2014</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>281</v>
+        <v>208</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" si="1"/>
@@ -16353,28 +14001,28 @@
         <v>2015</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16413,28 +14061,28 @@
         <v>2016</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16473,28 +14121,28 @@
         <v>2017</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16533,28 +14181,28 @@
         <v>2018</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -16585,7 +14233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z22"/>
   <sheetViews>
@@ -16722,28 +14370,28 @@
         <v>1999</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>287</v>
+        <v>214</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>288</v>
+        <v>215</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>289</v>
+        <v>216</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="T3" s="3">
         <f t="shared" ref="T3:W3" si="0">IF(B3&lt;&gt;"-",B3,0)</f>
@@ -16810,28 +14458,28 @@
         <v>2000</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" ref="T4:T18" si="2">IF(B4&lt;&gt;"-",B4,0)</f>
@@ -16898,28 +14546,28 @@
         <v>2001</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>305</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>307</v>
+        <v>234</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="T5" s="3">
         <f t="shared" si="2"/>
@@ -16986,28 +14634,28 @@
         <v>2002</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>310</v>
+        <v>237</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>311</v>
+        <v>238</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>315</v>
+        <v>242</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" si="2"/>
@@ -17074,28 +14722,28 @@
         <v>2003</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>317</v>
+        <v>244</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>318</v>
+        <v>245</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>319</v>
+        <v>246</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>320</v>
+        <v>247</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>321</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>321</v>
+        <v>248</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>321</v>
+        <v>248</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>321</v>
+        <v>248</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" si="2"/>
@@ -17162,28 +14810,28 @@
         <v>2004</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>324</v>
+        <v>251</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>325</v>
+        <v>252</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="2"/>
@@ -17250,28 +14898,28 @@
         <v>2005</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>327</v>
+        <v>254</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>328</v>
+        <v>255</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>329</v>
+        <v>256</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>331</v>
+        <v>258</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>331</v>
+        <v>258</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>331</v>
+        <v>258</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>331</v>
+        <v>258</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="2"/>
@@ -17338,28 +14986,28 @@
         <v>2006</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>333</v>
+        <v>260</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>335</v>
+        <v>262</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="2"/>
@@ -17426,28 +15074,28 @@
         <v>2007</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>341</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>342</v>
+        <v>269</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>342</v>
+        <v>269</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>342</v>
+        <v>269</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="2"/>
@@ -17514,28 +15162,28 @@
         <v>2008</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>343</v>
+        <v>270</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>344</v>
+        <v>271</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>345</v>
+        <v>272</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>347</v>
+        <v>274</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="2"/>
@@ -17602,28 +15250,28 @@
         <v>2009</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>350</v>
+        <v>277</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>351</v>
+        <v>278</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>352</v>
+        <v>279</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>353</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="2"/>
@@ -17690,28 +15338,28 @@
         <v>2010</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>354</v>
+        <v>281</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>355</v>
+        <v>282</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>356</v>
+        <v>283</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>357</v>
+        <v>284</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>358</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>359</v>
+        <v>286</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>359</v>
+        <v>286</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>360</v>
+        <v>287</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="2"/>
@@ -17778,28 +15426,28 @@
         <v>2011</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>361</v>
+        <v>288</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>362</v>
+        <v>289</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>363</v>
+        <v>290</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>364</v>
+        <v>291</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>365</v>
+        <v>292</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>366</v>
+        <v>293</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>366</v>
+        <v>293</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="2"/>
@@ -17866,28 +15514,28 @@
         <v>2012</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="2"/>
@@ -17954,28 +15602,28 @@
         <v>2013</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>378</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="2"/>
@@ -18042,28 +15690,28 @@
         <v>2014</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>382</v>
+        <v>309</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>386</v>
+        <v>313</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>386</v>
+        <v>313</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="2"/>
@@ -18130,28 +15778,28 @@
         <v>2015</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>388</v>
+        <v>315</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>389</v>
+        <v>316</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>390</v>
+        <v>317</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>391</v>
+        <v>318</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>393</v>
+        <v>320</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>393</v>
+        <v>320</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" ref="U19:W22" si="9">IF(C19&lt;&gt;"-",C19,0)</f>
@@ -18214,28 +15862,28 @@
         <v>2016</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>395</v>
+        <v>322</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>396</v>
+        <v>323</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>398</v>
+        <v>325</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>399</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>399</v>
+        <v>326</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>399</v>
+        <v>326</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>400</v>
+        <v>327</v>
       </c>
       <c r="U20" s="3">
         <f t="shared" si="9"/>
@@ -18298,28 +15946,28 @@
         <v>2017</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>401</v>
+        <v>328</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>402</v>
+        <v>329</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>403</v>
+        <v>330</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>404</v>
+        <v>331</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>399</v>
+        <v>326</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>399</v>
+        <v>326</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>406</v>
+        <v>333</v>
       </c>
       <c r="U21" s="3">
         <f t="shared" si="9"/>
@@ -18382,28 +16030,28 @@
         <v>2018</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>407</v>
+        <v>334</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>408</v>
+        <v>335</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>409</v>
+        <v>336</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>411</v>
+        <v>338</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>412</v>
+        <v>339</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>399</v>
+        <v>326</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>413</v>
+        <v>340</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" si="9"/>
@@ -18533,7 +16181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN24"/>
   <sheetViews>
@@ -18565,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -18578,7 +16226,7 @@
         <v>0</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
@@ -18591,7 +16239,7 @@
         <v>0</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W1" s="29"/>
       <c r="X1" s="29"/>
@@ -18604,7 +16252,7 @@
         <v>0</v>
       </c>
       <c r="AF1" s="28" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="AG1" s="34"/>
       <c r="AH1" s="34"/>
@@ -21399,7 +19047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ23"/>
   <sheetViews>
@@ -21427,7 +19075,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
@@ -21440,7 +19088,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -21453,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U1" s="36"/>
       <c r="V1" s="36"/>
@@ -21466,7 +19114,7 @@
         <v>0</v>
       </c>
       <c r="AC1" s="38" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="AD1" s="39"/>
       <c r="AE1" s="39"/>
@@ -22903,28 +20551,28 @@
         <v>2011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>414</v>
+        <v>341</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>415</v>
+        <v>342</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>416</v>
+        <v>343</v>
       </c>
       <c r="J15" s="22">
         <v>2011</v>
@@ -23040,10 +20688,10 @@
         <v>2012</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>7</v>
@@ -23397,10 +21045,10 @@
         <v>2015</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>420</v>
+        <v>347</v>
       </c>
       <c r="V19" s="15" t="s">
         <v>7</v>
@@ -23563,19 +21211,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>417</v>
+        <v>344</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>418</v>
+        <v>345</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>419</v>
+        <v>346</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>7</v>
@@ -23727,28 +21375,28 @@
         <v>2018</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB22" s="6">
         <v>2018</v>
@@ -23864,7 +21512,7 @@
         <v>2019</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD23" s="7" t="s">
         <v>7</v>
@@ -23902,4 +21550,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <tableParts count="1">
+    <tablePart r:id="rId8"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Collections/Евро/Регулярный_чекан_с_тиражами_1999-н.в.xlsx
+++ b/Collections/Евро/Регулярный_чекан_с_тиражами_1999-н.в.xlsx
@@ -12,16 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Сан-Марино" sheetId="19" r:id="rId1"/>
-    <sheet name="Словакия" sheetId="17" r:id="rId2"/>
-    <sheet name="Словения" sheetId="18" r:id="rId3"/>
-    <sheet name="Словения_тиражи" sheetId="32" r:id="rId4"/>
-    <sheet name="Финляндия" sheetId="21" r:id="rId5"/>
-    <sheet name="Франция" sheetId="22" r:id="rId6"/>
-    <sheet name="Эстония" sheetId="23" r:id="rId7"/>
-    <sheet name="Эстония_тиражи" sheetId="33" r:id="rId8"/>
-    <sheet name="Сайты" sheetId="30" r:id="rId9"/>
+    <sheet name="Словакия" sheetId="17" r:id="rId1"/>
+    <sheet name="Словения" sheetId="18" r:id="rId2"/>
+    <sheet name="Словения_тиражи" sheetId="32" r:id="rId3"/>
+    <sheet name="Финляндия" sheetId="21" r:id="rId4"/>
+    <sheet name="Франция" sheetId="22" r:id="rId5"/>
+    <sheet name="Эстония" sheetId="23" r:id="rId6"/>
+    <sheet name="Эстония_тиражи" sheetId="33" r:id="rId7"/>
+    <sheet name="Сайты" sheetId="30" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,167 +37,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-    <author>Автор</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -356,7 +197,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -426,7 +267,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -977,7 +818,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1138,7 +979,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1299,7 +1140,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1369,7 +1210,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1921,7 +1762,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="303">
   <si>
     <t>Год</t>
   </si>
@@ -1953,9 +1794,6 @@
     <t>20.000</t>
   </si>
   <si>
-    <t>115.000</t>
-  </si>
-  <si>
     <t>45.000</t>
   </si>
   <si>
@@ -1983,9 +1821,6 @@
     <t>8.680.000</t>
   </si>
   <si>
-    <t>1.070.000</t>
-  </si>
-  <si>
     <t>8.300.000</t>
   </si>
   <si>
@@ -2025,9 +1860,6 @@
     <t>200.000</t>
   </si>
   <si>
-    <t>210.000</t>
-  </si>
-  <si>
     <t>100.000</t>
   </si>
   <si>
@@ -2046,9 +1878,6 @@
     <t>LT</t>
   </si>
   <si>
-    <t>63.000</t>
-  </si>
-  <si>
     <t>NL</t>
   </si>
   <si>
@@ -2070,175 +1899,13 @@
     <t>9.000.000</t>
   </si>
   <si>
-    <t>85.000</t>
-  </si>
-  <si>
     <t>30.070.000</t>
   </si>
   <si>
-    <t>302.400</t>
-  </si>
-  <si>
-    <t>230.400</t>
-  </si>
-  <si>
-    <t>380.800</t>
-  </si>
-  <si>
-    <t>255.760</t>
-  </si>
-  <si>
     <t>70.000</t>
   </si>
   <si>
-    <t>430.000</t>
-  </si>
-  <si>
-    <t>415.800</t>
-  </si>
-  <si>
-    <t>1.570.000</t>
-  </si>
-  <si>
-    <t>1.465.000</t>
-  </si>
-  <si>
-    <t>250.000</t>
-  </si>
-  <si>
-    <t>370.000</t>
-  </si>
-  <si>
-    <t>249.712</t>
-  </si>
-  <si>
-    <t>2.800.000</t>
-  </si>
-  <si>
-    <t>2.950.000</t>
-  </si>
-  <si>
-    <t>413.880</t>
-  </si>
-  <si>
-    <t>220.000</t>
-  </si>
-  <si>
-    <t>190.000</t>
-  </si>
-  <si>
-    <t>390.000</t>
-  </si>
-  <si>
-    <t>1.231.360</t>
-  </si>
-  <si>
-    <t>1.413.000</t>
-  </si>
-  <si>
-    <t>1.159.672</t>
-  </si>
-  <si>
     <t>56.600</t>
-  </si>
-  <si>
-    <t>186.600</t>
-  </si>
-  <si>
-    <t>1.052.734</t>
-  </si>
-  <si>
-    <t>55.500</t>
-  </si>
-  <si>
-    <t>717.431</t>
-  </si>
-  <si>
-    <t>125.000</t>
-  </si>
-  <si>
-    <t>95.000</t>
-  </si>
-  <si>
-    <t>712.249</t>
-  </si>
-  <si>
-    <t>90.000</t>
-  </si>
-  <si>
-    <t>170.000</t>
-  </si>
-  <si>
-    <t>182.000</t>
-  </si>
-  <si>
-    <t>506.205</t>
-  </si>
-  <si>
-    <t>642.624</t>
-  </si>
-  <si>
-    <t>39.000</t>
-  </si>
-  <si>
-    <t>762.275</t>
-  </si>
-  <si>
-    <t>1.556.500</t>
-  </si>
-  <si>
-    <t>34.400</t>
-  </si>
-  <si>
-    <t>84.400</t>
-  </si>
-  <si>
-    <t>784.401</t>
-  </si>
-  <si>
-    <t>1.710.000</t>
-  </si>
-  <si>
-    <t>30.400</t>
-  </si>
-  <si>
-    <t>904.467</t>
-  </si>
-  <si>
-    <t>38.600</t>
-  </si>
-  <si>
-    <t>1.366.615</t>
-  </si>
-  <si>
-    <t>538.600</t>
-  </si>
-  <si>
-    <t>638.600</t>
-  </si>
-  <si>
-    <t>37.600</t>
-  </si>
-  <si>
-    <t>27.600</t>
-  </si>
-  <si>
-    <t>627.600</t>
-  </si>
-  <si>
-    <t>1.127.600</t>
-  </si>
-  <si>
-    <t>23.150</t>
-  </si>
-  <si>
-    <t>823.150</t>
-  </si>
-  <si>
-    <t>538.150</t>
-  </si>
-  <si>
-    <t>398.150</t>
   </si>
   <si>
     <t>SK</t>
@@ -3014,19 +2681,11 @@
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3281,19 +2940,19 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3304,22 +2963,22 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3337,13 +2996,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3352,49 +3008,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3404,15 +3060,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3587,6 +3235,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Сан-Марино"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
   <autoFilter ref="A1:C7">
@@ -3595,9 +3256,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="22"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="21" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="20"/>
+    <tableColumn id="1" name="№" dataDxfId="21"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="20" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3866,1791 +3527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S32" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="9" width="4.7265625" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
-    <col min="11" max="11" width="5.7265625" customWidth="1"/>
-    <col min="12" max="19" width="13.1796875" customWidth="1"/>
-    <col min="20" max="27" width="8.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-      <c r="K1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-    </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9">
-        <v>2</v>
-      </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="R2" s="5">
-        <v>1</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="10" t="str">
-        <f t="shared" ref="J3:J23" si="0">IF(OR(AND(B3&gt;1,B3&lt;&gt;"-"),AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-"),AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-      <c r="K3" s="6">
-        <v>1999</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="V3" s="3">
-        <f t="shared" ref="V3:V18" si="1">IF(D3&lt;&gt;"-",D3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="3">
-        <f t="shared" ref="W3:W18" si="2">IF(E3&lt;&gt;"-",E3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="3">
-        <f t="shared" ref="X3:X18" si="3">IF(F3&lt;&gt;"-",F3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y18" si="4">IF(G3&lt;&gt;"-",G3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3">
-        <f t="shared" ref="Z3:Z18" si="5">IF(H3&lt;&gt;"-",H3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="3">
-        <f t="shared" ref="AA3:AA18" si="6">IF(I3&lt;&gt;"-",I3,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K4" s="6">
-        <v>2000</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K5" s="6">
-        <v>2001</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K6" s="6">
-        <v>2002</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="S6" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K7" s="6">
-        <v>2003</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K8" s="6">
-        <v>2004</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K9" s="6">
-        <v>2005</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K10" s="6">
-        <v>2006</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="R10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="S10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="V10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="6">
-        <v>2007</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K12" s="6">
-        <v>2008</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="V12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K13" s="6">
-        <v>2009</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="R13" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="V13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K14" s="6">
-        <v>2010</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="R14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="V14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K15" s="6">
-        <v>2011</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="S15" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="V15" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K16" s="6">
-        <v>2012</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="R16" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="S16" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="V16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K17" s="6">
-        <v>2013</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="R17" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="S17" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="V17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K18" s="6">
-        <v>2014</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q18" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="R18" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="V18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K19" s="6">
-        <v>2015</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q19" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="R19" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K20" s="6">
-        <v>2016</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="P20" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="S20" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K21" s="6">
-        <v>2017</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="P21" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="R21" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="S21" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K22" s="6">
-        <v>2018</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="P22" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="R22" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K23" s="6">
-        <v>2019</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q23" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="R23" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="S23" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:S1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B3:I23">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R34" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5664,35 +3547,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
+        <v>48</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -6459,28 +4342,28 @@
         <v>2009</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" ref="T13:U13" si="11">IF(H13&lt;&gt;"-",H13,0)</f>
@@ -6527,28 +4410,28 @@
         <v>2010</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" ref="T14:U14" si="12">IF(H14&lt;&gt;"-",H14,0)</f>
@@ -6595,28 +4478,28 @@
         <v>2011</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" ref="T15:U15" si="13">IF(H15&lt;&gt;"-",H15,0)</f>
@@ -6663,28 +4546,28 @@
         <v>2012</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" ref="T16:U16" si="14">IF(H16&lt;&gt;"-",H16,0)</f>
@@ -6731,28 +4614,28 @@
         <v>2013</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" ref="T17:U17" si="15">IF(H17&lt;&gt;"-",H17,0)</f>
@@ -6799,28 +4682,28 @@
         <v>2014</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" ref="T18:U18" si="16">IF(H18&lt;&gt;"-",H18,0)</f>
@@ -6867,28 +4750,28 @@
         <v>2015</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6927,28 +4810,28 @@
         <v>2016</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6987,28 +4870,28 @@
         <v>2017</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7047,28 +4930,28 @@
         <v>2018</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="13" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7107,28 +4990,28 @@
         <v>2019</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="P23" s="20" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="Q23" s="20" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="R23" s="20" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="S23" s="20" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7177,8 +5060,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" text="*-" id="{CA6BA6B7-D3A6-4DDC-9477-1F1B2D0F6F5A}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('Сан-Марино'!B3))))</xm:f>
+          <x14:cfRule type="containsText" priority="19" operator="containsText" text="*-" id="{CA6BA6B7-D3A6-4DDC-9477-1F1B2D0F6F5A}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('San_Marino\[Книга1.xlsx]Сан-Марино'!#REF!))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -7196,7 +5079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN24"/>
   <sheetViews>
@@ -7204,7 +5087,7 @@
       <pane xSplit="40" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AO1" sqref="AO1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB30" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7224,61 +5107,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="37"/>
-      <c r="K1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="U1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="35"/>
-      <c r="AE1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="35"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="K1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="U1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="29"/>
+      <c r="AE1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="29"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -7303,7 +5186,7 @@
       <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="8" t="s">
         <v>1</v>
       </c>
@@ -7328,7 +5211,7 @@
       <c r="S2" s="9">
         <v>2</v>
       </c>
-      <c r="U2" s="27"/>
+      <c r="U2" s="26"/>
       <c r="V2" s="8" t="s">
         <v>1</v>
       </c>
@@ -7353,7 +5236,7 @@
       <c r="AC2" s="9">
         <v>2</v>
       </c>
-      <c r="AE2" s="27"/>
+      <c r="AE2" s="26"/>
       <c r="AF2" s="8" t="s">
         <v>1</v>
       </c>
@@ -9921,7 +7804,7 @@
     <mergeCell ref="V1:AC1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:I22">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -9936,7 +7819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AM19 AF21:AM21 AG20:AM20 AH22:AM22">
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(AF3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -9951,7 +7834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:S22">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -9966,7 +7849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:AC18 V20:AC21 W19:AC19 V22:X22 Z22:AC22">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(V3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -9981,7 +7864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V19">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(V19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -9996,7 +7879,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(Y22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -10011,7 +7894,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF20">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(AF20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -10026,7 +7909,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF22">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(AF22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -10041,7 +7924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG22">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(AG22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -10061,7 +7944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
@@ -10088,55 +7971,55 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40"/>
+      <c r="K1" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="39"/>
       <c r="S1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
+      <c r="T1" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
       <c r="AB1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="AC1" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
+        <v>11</v>
+      </c>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
@@ -11125,28 +9008,28 @@
         <v>2007</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="J11" s="12">
         <v>2007</v>
@@ -11262,28 +9145,28 @@
         <v>2008</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="S12" s="12">
         <v>2008</v>
@@ -11345,28 +9228,28 @@
         <v>2009</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J13" s="12">
         <v>2009</v>
@@ -11455,28 +9338,28 @@
         <v>2010</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="J14" s="12">
         <v>2010</v>
@@ -11565,28 +9448,28 @@
         <v>2011</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" s="12">
         <v>2011</v>
@@ -11729,28 +9612,28 @@
         <v>2012</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="18">
         <v>2012</v>
@@ -11839,28 +9722,28 @@
         <v>2013</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB17" s="18">
         <v>2013</v>
@@ -11922,28 +9805,28 @@
         <v>2014</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="S18" s="12">
         <v>2014</v>
@@ -12059,28 +9942,28 @@
         <v>2015</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W19" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Y19" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AB19" s="18">
         <v>2015</v>
@@ -12196,28 +10079,28 @@
         <v>2016</v>
       </c>
       <c r="AC20" s="17" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="AD20" s="13" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="AE20" s="13" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="AG20" s="13" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="AH20" s="13" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="AI20" s="13" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="AJ20" s="13" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12279,28 +10162,28 @@
         <v>2017</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="V21" s="13" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="Y21" s="13" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="Z21" s="13" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="AA21" s="13" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="AB21" s="6">
         <v>2017</v>
@@ -12398,7 +10281,7 @@
         <v>7</v>
       </c>
       <c r="W22" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X22" s="15" t="s">
         <v>7</v>
@@ -12416,28 +10299,28 @@
         <v>2018</v>
       </c>
       <c r="AC22" s="17" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="AD22" s="17" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="AE22" s="13" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="AF22" s="13" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="AG22" s="13" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="AH22" s="13" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="AI22" s="13" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="AJ22" s="13" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -12456,7 +10339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
@@ -12464,7 +10347,7 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O31" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12478,35 +10361,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="37"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
       <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40"/>
+      <c r="L1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -12593,28 +10476,28 @@
         <v>1999</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="U3" s="3">
         <f t="shared" ref="U3:U18" si="1">IF(C3&lt;&gt;"-",C3,0)</f>
@@ -12681,28 +10564,28 @@
         <v>2000</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U4" s="3">
         <f t="shared" si="1"/>
@@ -12769,28 +10652,28 @@
         <v>2001</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="U5" s="3">
         <f t="shared" si="1"/>
@@ -12857,28 +10740,28 @@
         <v>2002</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="U6" s="3">
         <f t="shared" si="1"/>
@@ -12945,28 +10828,28 @@
         <v>2003</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="U7" s="3">
         <f t="shared" si="1"/>
@@ -13033,28 +10916,28 @@
         <v>2004</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="1"/>
@@ -13121,28 +11004,28 @@
         <v>2005</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" si="1"/>
@@ -13209,10 +11092,10 @@
         <v>2006</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>8</v>
@@ -13224,13 +11107,13 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" si="1"/>
@@ -13297,10 +11180,10 @@
         <v>2007</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>8</v>
@@ -13318,7 +11201,7 @@
         <v>8</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" si="1"/>
@@ -13385,10 +11268,10 @@
         <v>2008</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>8</v>
@@ -13400,13 +11283,13 @@
         <v>8</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U12" s="3">
         <f t="shared" si="1"/>
@@ -13488,13 +11371,13 @@
         <v>8</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" si="1"/>
@@ -13561,28 +11444,28 @@
         <v>2010</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
@@ -13649,28 +11532,28 @@
         <v>2011</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" si="1"/>
@@ -13737,28 +11620,28 @@
         <v>2012</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" si="1"/>
@@ -13825,28 +11708,28 @@
         <v>2013</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="1"/>
@@ -13913,28 +11796,28 @@
         <v>2014</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" si="1"/>
@@ -14001,28 +11884,28 @@
         <v>2015</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14061,28 +11944,28 @@
         <v>2016</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14121,28 +12004,28 @@
         <v>2017</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14181,28 +12064,28 @@
         <v>2018</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -14213,7 +12096,7 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:I22">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -14233,7 +12116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z22"/>
   <sheetViews>
@@ -14255,35 +12138,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="37"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
       <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
+        <v>12</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -14370,28 +12253,28 @@
         <v>1999</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="T3" s="3">
         <f t="shared" ref="T3:W3" si="0">IF(B3&lt;&gt;"-",B3,0)</f>
@@ -14458,28 +12341,28 @@
         <v>2000</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" ref="T4:T18" si="2">IF(B4&lt;&gt;"-",B4,0)</f>
@@ -14546,28 +12429,28 @@
         <v>2001</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="T5" s="3">
         <f t="shared" si="2"/>
@@ -14634,28 +12517,28 @@
         <v>2002</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" si="2"/>
@@ -14722,28 +12605,28 @@
         <v>2003</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" si="2"/>
@@ -14810,28 +12693,28 @@
         <v>2004</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="2"/>
@@ -14898,28 +12781,28 @@
         <v>2005</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="2"/>
@@ -14986,28 +12869,28 @@
         <v>2006</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="2"/>
@@ -15074,28 +12957,28 @@
         <v>2007</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="2"/>
@@ -15162,28 +13045,28 @@
         <v>2008</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="2"/>
@@ -15250,28 +13133,28 @@
         <v>2009</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="2"/>
@@ -15338,28 +13221,28 @@
         <v>2010</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="2"/>
@@ -15426,28 +13309,28 @@
         <v>2011</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="2"/>
@@ -15514,28 +13397,28 @@
         <v>2012</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="2"/>
@@ -15602,28 +13485,28 @@
         <v>2013</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>301</v>
+        <v>243</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>306</v>
+        <v>248</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>306</v>
+        <v>248</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>307</v>
+        <v>249</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="2"/>
@@ -15690,28 +13573,28 @@
         <v>2014</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>308</v>
+        <v>250</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="2"/>
@@ -15778,28 +13661,28 @@
         <v>2015</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" ref="U19:W22" si="9">IF(C19&lt;&gt;"-",C19,0)</f>
@@ -15862,28 +13745,28 @@
         <v>2016</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>327</v>
+        <v>269</v>
       </c>
       <c r="U20" s="3">
         <f t="shared" si="9"/>
@@ -15946,28 +13829,28 @@
         <v>2017</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>328</v>
+        <v>270</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>329</v>
+        <v>271</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>330</v>
+        <v>272</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>331</v>
+        <v>273</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>332</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="U21" s="3">
         <f t="shared" si="9"/>
@@ -16030,28 +13913,28 @@
         <v>2018</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>334</v>
+        <v>276</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>335</v>
+        <v>277</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" si="9"/>
@@ -16086,7 +13969,7 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:I5 D6:I6 B7:E10 B22:G22 I15:I22 B11:F15 B21:F21 B20:E20 B17:F19 B16:E16">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -16101,7 +13984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -16116,7 +13999,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -16131,7 +14014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:I10 I11:I14 H11:H22 G11:G21">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -16146,7 +14029,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -16161,7 +14044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -16181,7 +14064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN24"/>
   <sheetViews>
@@ -16209,61 +14092,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="37"/>
-      <c r="K1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="U1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="37"/>
-      <c r="AE1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="35"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="K1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="U1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="36"/>
+      <c r="AE1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="29"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -16288,7 +14171,7 @@
       <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="8" t="s">
         <v>1</v>
       </c>
@@ -16313,7 +14196,7 @@
       <c r="S2" s="9">
         <v>2</v>
       </c>
-      <c r="U2" s="27"/>
+      <c r="U2" s="26"/>
       <c r="V2" s="8" t="s">
         <v>1</v>
       </c>
@@ -16338,7 +14221,7 @@
       <c r="AC2" s="9">
         <v>2</v>
       </c>
-      <c r="AE2" s="27"/>
+      <c r="AE2" s="26"/>
       <c r="AF2" s="8" t="s">
         <v>1</v>
       </c>
@@ -19027,7 +16910,7 @@
     <mergeCell ref="U1:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:I23 L3:S23 V3:AC23 AF3:AM23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -19047,7 +16930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ23"/>
   <sheetViews>
@@ -19074,55 +16957,55 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40"/>
+      <c r="K1" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="39"/>
       <c r="S1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+        <v>37</v>
+      </c>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
       <c r="AB1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
+      <c r="AC1" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
@@ -19254,7 +17137,7 @@
       <c r="I3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>1999</v>
       </c>
       <c r="K3" s="15" t="s">
@@ -19281,7 +17164,7 @@
       <c r="R3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="21">
         <v>1999</v>
       </c>
       <c r="T3" s="15" t="s">
@@ -19364,7 +17247,7 @@
       <c r="I4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>2000</v>
       </c>
       <c r="K4" s="15" t="s">
@@ -19391,7 +17274,7 @@
       <c r="R4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="21">
         <v>2000</v>
       </c>
       <c r="T4" s="15" t="s">
@@ -19474,7 +17357,7 @@
       <c r="I5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>2001</v>
       </c>
       <c r="K5" s="15" t="s">
@@ -19501,7 +17384,7 @@
       <c r="R5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="21">
         <v>2001</v>
       </c>
       <c r="T5" s="15" t="s">
@@ -19584,7 +17467,7 @@
       <c r="I6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>2002</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -19611,7 +17494,7 @@
       <c r="R6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="21">
         <v>2002</v>
       </c>
       <c r="T6" s="15" t="s">
@@ -19694,7 +17577,7 @@
       <c r="I7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>2003</v>
       </c>
       <c r="K7" s="15" t="s">
@@ -19721,7 +17604,7 @@
       <c r="R7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="21">
         <v>2003</v>
       </c>
       <c r="T7" s="15" t="s">
@@ -19804,7 +17687,7 @@
       <c r="I8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <v>2004</v>
       </c>
       <c r="K8" s="15" t="s">
@@ -19831,7 +17714,7 @@
       <c r="R8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="21">
         <v>2004</v>
       </c>
       <c r="T8" s="15" t="s">
@@ -19914,7 +17797,7 @@
       <c r="I9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <v>2005</v>
       </c>
       <c r="K9" s="15" t="s">
@@ -19941,7 +17824,7 @@
       <c r="R9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="21">
         <v>2005</v>
       </c>
       <c r="T9" s="15" t="s">
@@ -20024,7 +17907,7 @@
       <c r="I10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <v>2006</v>
       </c>
       <c r="K10" s="15" t="s">
@@ -20051,7 +17934,7 @@
       <c r="R10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="22">
+      <c r="S10" s="21">
         <v>2006</v>
       </c>
       <c r="T10" s="15" t="s">
@@ -20134,7 +18017,7 @@
       <c r="I11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="21">
         <v>2007</v>
       </c>
       <c r="K11" s="15" t="s">
@@ -20161,7 +18044,7 @@
       <c r="R11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="21">
         <v>2007</v>
       </c>
       <c r="T11" s="15" t="s">
@@ -20244,7 +18127,7 @@
       <c r="I12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <v>2008</v>
       </c>
       <c r="K12" s="15" t="s">
@@ -20271,7 +18154,7 @@
       <c r="R12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S12" s="21">
         <v>2008</v>
       </c>
       <c r="T12" s="15" t="s">
@@ -20354,7 +18237,7 @@
       <c r="I13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="21">
         <v>2009</v>
       </c>
       <c r="K13" s="15" t="s">
@@ -20381,7 +18264,7 @@
       <c r="R13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="21">
         <v>2009</v>
       </c>
       <c r="T13" s="15" t="s">
@@ -20464,7 +18347,7 @@
       <c r="I14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <v>2010</v>
       </c>
       <c r="K14" s="15" t="s">
@@ -20491,7 +18374,7 @@
       <c r="R14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="21">
         <v>2010</v>
       </c>
       <c r="T14" s="15" t="s">
@@ -20551,30 +18434,30 @@
         <v>2011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="J15" s="22">
+        <v>285</v>
+      </c>
+      <c r="J15" s="21">
         <v>2011</v>
       </c>
       <c r="K15" s="15" t="s">
@@ -20601,7 +18484,7 @@
       <c r="R15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15" s="21">
         <v>2011</v>
       </c>
       <c r="T15" s="15" t="s">
@@ -20684,14 +18567,14 @@
       <c r="I16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="21">
         <v>2012</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>7</v>
@@ -20711,7 +18594,7 @@
       <c r="R16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="22">
+      <c r="S16" s="21">
         <v>2012</v>
       </c>
       <c r="T16" s="15" t="s">
@@ -20794,7 +18677,7 @@
       <c r="I17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="21">
         <v>2013</v>
       </c>
       <c r="K17" s="15" t="s">
@@ -20821,7 +18704,7 @@
       <c r="R17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S17" s="22">
+      <c r="S17" s="21">
         <v>2013</v>
       </c>
       <c r="T17" s="15" t="s">
@@ -20904,7 +18787,7 @@
       <c r="I18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="21">
         <v>2014</v>
       </c>
       <c r="K18" s="15" t="s">
@@ -20931,7 +18814,7 @@
       <c r="R18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S18" s="22">
+      <c r="S18" s="21">
         <v>2014</v>
       </c>
       <c r="T18" s="15" t="s">
@@ -21014,7 +18897,7 @@
       <c r="I19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="21">
         <v>2015</v>
       </c>
       <c r="K19" s="15" t="s">
@@ -21045,10 +18928,10 @@
         <v>2015</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="V19" s="15" t="s">
         <v>7</v>
@@ -21124,7 +19007,7 @@
       <c r="I20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="21">
         <v>2016</v>
       </c>
       <c r="K20" s="15" t="s">
@@ -21211,19 +19094,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>7</v>
@@ -21234,7 +19117,7 @@
       <c r="I21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="21">
         <v>2017</v>
       </c>
       <c r="K21" s="15" t="s">
@@ -21375,28 +19258,28 @@
         <v>2018</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB22" s="6">
         <v>2018</v>
@@ -21454,7 +19337,7 @@
       <c r="I23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="21">
         <v>2019</v>
       </c>
       <c r="K23" s="15" t="s">
@@ -21481,7 +19364,7 @@
       <c r="R23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S23" s="22">
+      <c r="S23" s="21">
         <v>2019</v>
       </c>
       <c r="T23" s="15" t="s">
@@ -21512,7 +19395,7 @@
         <v>2019</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD23" s="7" t="s">
         <v>7</v>
@@ -21552,7 +19435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -21572,79 +19455,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>352</v>
+      <c r="B2" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>357</v>
+      <c r="B3" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>355</v>
+      <c r="B4" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>353</v>
+      <c r="B5" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>358</v>
+      <c r="B6" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>360</v>
+      <c r="B7" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/Евро/Регулярный_чекан_с_тиражами_1999-н.в.xlsx
+++ b/Collections/Евро/Регулярный_чекан_с_тиражами_1999-н.в.xlsx
@@ -12,18 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Словакия" sheetId="17" r:id="rId1"/>
-    <sheet name="Словения" sheetId="18" r:id="rId2"/>
-    <sheet name="Словения_тиражи" sheetId="32" r:id="rId3"/>
-    <sheet name="Финляндия" sheetId="21" r:id="rId4"/>
-    <sheet name="Франция" sheetId="22" r:id="rId5"/>
-    <sheet name="Эстония" sheetId="23" r:id="rId6"/>
-    <sheet name="Эстония_тиражи" sheetId="33" r:id="rId7"/>
-    <sheet name="Сайты" sheetId="30" r:id="rId8"/>
+    <sheet name="Словения" sheetId="18" r:id="rId1"/>
+    <sheet name="Словения_тиражи" sheetId="32" r:id="rId2"/>
+    <sheet name="Финляндия" sheetId="21" r:id="rId3"/>
+    <sheet name="Франция" sheetId="22" r:id="rId4"/>
+    <sheet name="Эстония" sheetId="23" r:id="rId5"/>
+    <sheet name="Эстония_тиражи" sheetId="33" r:id="rId6"/>
+    <sheet name="Сайты" sheetId="30" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,167 +33,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-    <author>Автор</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Словакии (Кремница)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Словакии (Кремница)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -267,7 +102,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -818,7 +653,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -979,7 +814,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1140,7 +975,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1210,7 +1045,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1762,7 +1597,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="261">
   <si>
     <t>Год</t>
   </si>
@@ -1794,21 +1629,12 @@
     <t>20.000</t>
   </si>
   <si>
-    <t>45.000</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
     <t>FR</t>
   </si>
   <si>
-    <t>25.000</t>
-  </si>
-  <si>
-    <t>5.025.000</t>
-  </si>
-  <si>
     <t>17.000</t>
   </si>
   <si>
@@ -1899,127 +1725,10 @@
     <t>9.000.000</t>
   </si>
   <si>
-    <t>30.070.000</t>
-  </si>
-  <si>
-    <t>70.000</t>
-  </si>
-  <si>
     <t>56.600</t>
   </si>
   <si>
     <t>SK</t>
-  </si>
-  <si>
-    <t>90.828.000</t>
-  </si>
-  <si>
-    <t>80.905.000</t>
-  </si>
-  <si>
-    <t>84.957.000</t>
-  </si>
-  <si>
-    <t>74.800.000</t>
-  </si>
-  <si>
-    <t>66.602.000</t>
-  </si>
-  <si>
-    <t>59.400.000</t>
-  </si>
-  <si>
-    <t>46.860.000</t>
-  </si>
-  <si>
-    <t>35.750.000</t>
-  </si>
-  <si>
-    <t>50.070.000</t>
-  </si>
-  <si>
-    <t>20.455.000</t>
-  </si>
-  <si>
-    <t>15.055.000</t>
-  </si>
-  <si>
-    <t>55.000</t>
-  </si>
-  <si>
-    <t>5.055.000</t>
-  </si>
-  <si>
-    <t>10.545.000</t>
-  </si>
-  <si>
-    <t>26.058.800</t>
-  </si>
-  <si>
-    <t>28.800</t>
-  </si>
-  <si>
-    <t>26.275.000</t>
-  </si>
-  <si>
-    <t>23.111.000</t>
-  </si>
-  <si>
-    <t>12.564.000</t>
-  </si>
-  <si>
-    <t>7.350.000</t>
-  </si>
-  <si>
-    <t>28.899.000</t>
-  </si>
-  <si>
-    <t>17.026.000</t>
-  </si>
-  <si>
-    <t>26.000</t>
-  </si>
-  <si>
-    <t>2.026.000</t>
-  </si>
-  <si>
-    <t>20.538.000</t>
-  </si>
-  <si>
-    <t>13.668.000</t>
-  </si>
-  <si>
-    <t>6.138.000</t>
-  </si>
-  <si>
-    <t>18.000</t>
-  </si>
-  <si>
-    <t>2.118.000</t>
-  </si>
-  <si>
-    <t>20.606.000</t>
-  </si>
-  <si>
-    <t>12.130.000</t>
-  </si>
-  <si>
-    <t>8.026.000</t>
-  </si>
-  <si>
-    <t>32.015.100</t>
-  </si>
-  <si>
-    <t>14.015.100</t>
-  </si>
-  <si>
-    <t>4.015.100</t>
-  </si>
-  <si>
-    <t>1.515.100</t>
-  </si>
-  <si>
-    <t>15.100</t>
   </si>
   <si>
     <t>18.000.000</t>
@@ -2681,7 +2390,7 @@
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2732,24 +2441,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2942,9 +2633,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2996,12 +2687,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3034,7 +2719,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3053,6 +2737,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1"/>
@@ -3060,23 +2745,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3235,19 +2904,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Сан-Марино"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
   <autoFilter ref="A1:C7">
@@ -3256,9 +2912,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="21"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="20" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="19"/>
+    <tableColumn id="1" name="№" dataDxfId="19"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="18" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3527,1567 +3183,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:AN24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="9" width="4.7265625" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
-    <col min="11" max="11" width="5.7265625" customWidth="1"/>
-    <col min="12" max="19" width="13.1796875" customWidth="1"/>
-    <col min="20" max="21" width="8.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="K1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9">
-        <v>2</v>
-      </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="R2" s="5">
-        <v>1</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="10" t="str">
-        <f t="shared" ref="J3:J23" si="0">IF(OR(AND(B3&gt;1,B3&lt;&gt;"-"),AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-"),AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-      <c r="K3" s="6">
-        <v>1999</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="3">
-        <f t="shared" ref="T3:U3" si="1">IF(H3&lt;&gt;"-",H3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K4" s="6">
-        <v>2000</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" ref="T4:U4" si="2">IF(H4&lt;&gt;"-",H4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K5" s="6">
-        <v>2001</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="3">
-        <f t="shared" ref="T5:U5" si="3">IF(H5&lt;&gt;"-",H5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K6" s="6">
-        <v>2002</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="3">
-        <f t="shared" ref="T6:U6" si="4">IF(H6&lt;&gt;"-",H6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K7" s="6">
-        <v>2003</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="3">
-        <f t="shared" ref="T7:U7" si="5">IF(H7&lt;&gt;"-",H7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K8" s="6">
-        <v>2004</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T8" s="3">
-        <f t="shared" ref="T8" si="6">IF(H8&lt;&gt;"-",H8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <f>IF(I8&lt;&gt;"-",I8,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K9" s="6">
-        <v>2005</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T9" s="3">
-        <f t="shared" ref="T9:U9" si="7">IF(H9&lt;&gt;"-",H9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K10" s="6">
-        <v>2006</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="3">
-        <f t="shared" ref="T10:U10" si="8">IF(H10&lt;&gt;"-",H10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="10" t="str">
-        <f>IF(OR(AND(B11&gt;1,B11&lt;&gt;"-"),AND(C11&gt;1,C11&lt;&gt;"-"),AND(D11&gt;1,D11&lt;&gt;"-"),AND(E11&gt;1,E11&lt;&gt;"-"),AND(F11&gt;1,F11&lt;&gt;"-"),AND(G11&gt;1,G11&lt;&gt;"-"),AND(H11&gt;1,H11&lt;&gt;"-"),AND(I11&gt;1,I11&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-      <c r="K11" s="6">
-        <v>2007</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T11" s="3">
-        <f t="shared" ref="T11:U11" si="9">IF(H11&lt;&gt;"-",H11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K12" s="6">
-        <v>2008</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="T12" s="3">
-        <f t="shared" ref="T12:U12" si="10">IF(H12&lt;&gt;"-",H12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K13" s="6">
-        <v>2009</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="S13" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="T13" s="3">
-        <f t="shared" ref="T13:U13" si="11">IF(H13&lt;&gt;"-",H13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K14" s="6">
-        <v>2010</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14" s="3">
-        <f t="shared" ref="T14:U14" si="12">IF(H14&lt;&gt;"-",H14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K15" s="6">
-        <v>2011</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T15" s="3">
-        <f t="shared" ref="T15:U15" si="13">IF(H15&lt;&gt;"-",H15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K16" s="6">
-        <v>2012</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T16" s="3">
-        <f t="shared" ref="T16:U16" si="14">IF(H16&lt;&gt;"-",H16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K17" s="6">
-        <v>2013</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="T17" s="3">
-        <f t="shared" ref="T17:U17" si="15">IF(H17&lt;&gt;"-",H17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K18" s="6">
-        <v>2014</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="T18" s="3">
-        <f t="shared" ref="T18:U18" si="16">IF(H18&lt;&gt;"-",H18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K19" s="6">
-        <v>2015</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K20" s="6">
-        <v>2016</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="P20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="S20" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K21" s="6">
-        <v>2017</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K22" s="6">
-        <v>2018</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="N22" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="P22" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K23" s="6">
-        <v>2019</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="O23" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="P23" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q23" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="R23" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="S23" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:S1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B6:I23">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(B6))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:I5">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" text="*-" id="{CA6BA6B7-D3A6-4DDC-9477-1F1B2D0F6F5A}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('San_Marino\[Книга1.xlsx]Сан-Марино'!#REF!))))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9BE5FF"/>
-                  <bgColor rgb="FF9BE5FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B3:I5</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <pane xSplit="40" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AO1" sqref="AO1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5107,61 +3209,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="K1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="U1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="29"/>
-      <c r="AE1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="29"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="K1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="U1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="27"/>
+      <c r="AE1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="27"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -5186,7 +3288,7 @@
       <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="8" t="s">
         <v>1</v>
       </c>
@@ -5211,7 +3313,7 @@
       <c r="S2" s="9">
         <v>2</v>
       </c>
-      <c r="U2" s="26"/>
+      <c r="U2" s="24"/>
       <c r="V2" s="8" t="s">
         <v>1</v>
       </c>
@@ -5236,7 +3338,7 @@
       <c r="AC2" s="9">
         <v>2</v>
       </c>
-      <c r="AE2" s="26"/>
+      <c r="AE2" s="24"/>
       <c r="AF2" s="8" t="s">
         <v>1</v>
       </c>
@@ -7804,7 +5906,7 @@
     <mergeCell ref="V1:AC1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:I22">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -7819,7 +5921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AM19 AF21:AM21 AG20:AM20 AH22:AM22">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(AF3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7834,7 +5936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:S22">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -7849,7 +5951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:AC18 V20:AC21 W19:AC19 V22:X22 Z22:AC22">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(V3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7864,7 +5966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V19">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(V19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -7879,7 +5981,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(Y22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7894,7 +5996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF20">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(AF20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7909,7 +6011,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF22">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(AF22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7924,7 +6026,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG22">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(AG22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7944,7 +6046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
@@ -7968,61 +6070,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="14">
         <v>0.01</v>
       </c>
@@ -8047,7 +6149,7 @@
       <c r="I2" s="14">
         <v>2</v>
       </c>
-      <c r="J2" s="31"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="14">
         <v>0.01</v>
       </c>
@@ -8072,7 +6174,7 @@
       <c r="R2" s="14">
         <v>2</v>
       </c>
-      <c r="S2" s="31"/>
+      <c r="S2" s="29"/>
       <c r="T2" s="14">
         <v>0.01</v>
       </c>
@@ -8097,7 +6199,7 @@
       <c r="AA2" s="14">
         <v>2</v>
       </c>
-      <c r="AB2" s="31"/>
+      <c r="AB2" s="29"/>
       <c r="AC2" s="5">
         <v>0.01</v>
       </c>
@@ -9008,28 +7110,28 @@
         <v>2007</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="J11" s="12">
         <v>2007</v>
@@ -9145,28 +7247,28 @@
         <v>2008</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="S12" s="12">
         <v>2008</v>
@@ -9228,28 +7330,28 @@
         <v>2009</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J13" s="12">
         <v>2009</v>
@@ -9338,28 +7440,28 @@
         <v>2010</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="J14" s="12">
         <v>2010</v>
@@ -9448,28 +7550,28 @@
         <v>2011</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J15" s="12">
         <v>2011</v>
@@ -9612,28 +7714,28 @@
         <v>2012</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V16" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W16" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y16" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB16" s="18">
         <v>2012</v>
@@ -9722,28 +7824,28 @@
         <v>2013</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U17" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V17" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W17" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X17" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z17" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA17" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB17" s="18">
         <v>2013</v>
@@ -9805,28 +7907,28 @@
         <v>2014</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="S18" s="12">
         <v>2014</v>
@@ -9942,28 +8044,28 @@
         <v>2015</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="W19" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y19" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB19" s="18">
         <v>2015</v>
@@ -10079,28 +8181,28 @@
         <v>2016</v>
       </c>
       <c r="AC20" s="17" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AD20" s="13" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AE20" s="13" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AG20" s="13" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AH20" s="13" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AI20" s="13" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AJ20" s="13" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10162,28 +8264,28 @@
         <v>2017</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="V21" s="13" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="Y21" s="13" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="Z21" s="13" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AA21" s="13" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AB21" s="6">
         <v>2017</v>
@@ -10281,7 +8383,7 @@
         <v>7</v>
       </c>
       <c r="W22" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X22" s="15" t="s">
         <v>7</v>
@@ -10299,28 +8401,28 @@
         <v>2018</v>
       </c>
       <c r="AC22" s="17" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AD22" s="17" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AE22" s="13" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AF22" s="13" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AG22" s="13" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AH22" s="13" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AI22" s="13" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AJ22" s="13" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -10339,7 +8441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
@@ -10361,35 +8463,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="K1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="39"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="K1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -10414,7 +8516,7 @@
       <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="29"/>
       <c r="L2" s="5">
         <v>0.01</v>
       </c>
@@ -10476,28 +8578,28 @@
         <v>1999</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="U3" s="3">
         <f t="shared" ref="U3:U18" si="1">IF(C3&lt;&gt;"-",C3,0)</f>
@@ -10564,28 +8666,28 @@
         <v>2000</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U4" s="3">
         <f t="shared" si="1"/>
@@ -10652,28 +8754,28 @@
         <v>2001</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="U5" s="3">
         <f t="shared" si="1"/>
@@ -10740,28 +8842,28 @@
         <v>2002</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="U6" s="3">
         <f t="shared" si="1"/>
@@ -10828,28 +8930,28 @@
         <v>2003</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="U7" s="3">
         <f t="shared" si="1"/>
@@ -10916,28 +9018,28 @@
         <v>2004</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="1"/>
@@ -11004,28 +9106,28 @@
         <v>2005</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" si="1"/>
@@ -11092,10 +9194,10 @@
         <v>2006</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>8</v>
@@ -11107,13 +9209,13 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" si="1"/>
@@ -11180,10 +9282,10 @@
         <v>2007</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>8</v>
@@ -11201,7 +9303,7 @@
         <v>8</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" si="1"/>
@@ -11268,10 +9370,10 @@
         <v>2008</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>8</v>
@@ -11283,13 +9385,13 @@
         <v>8</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="U12" s="3">
         <f t="shared" si="1"/>
@@ -11371,13 +9473,13 @@
         <v>8</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" si="1"/>
@@ -11444,28 +9546,28 @@
         <v>2010</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="1"/>
@@ -11532,28 +9634,28 @@
         <v>2011</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" si="1"/>
@@ -11620,28 +9722,28 @@
         <v>2012</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" si="1"/>
@@ -11708,28 +9810,28 @@
         <v>2013</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="1"/>
@@ -11796,28 +9898,28 @@
         <v>2014</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" si="1"/>
@@ -11884,28 +9986,28 @@
         <v>2015</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11944,28 +10046,28 @@
         <v>2016</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12004,28 +10106,28 @@
         <v>2017</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12064,28 +10166,28 @@
         <v>2018</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -12096,7 +10198,7 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:I22">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -12116,7 +10218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z22"/>
   <sheetViews>
@@ -12138,35 +10240,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="K1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="K1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -12191,7 +10293,7 @@
       <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="29"/>
       <c r="L2" s="5">
         <v>0.01</v>
       </c>
@@ -12253,28 +10355,28 @@
         <v>1999</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="T3" s="3">
         <f t="shared" ref="T3:W3" si="0">IF(B3&lt;&gt;"-",B3,0)</f>
@@ -12341,28 +10443,28 @@
         <v>2000</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" ref="T4:T18" si="2">IF(B4&lt;&gt;"-",B4,0)</f>
@@ -12429,28 +10531,28 @@
         <v>2001</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="T5" s="3">
         <f t="shared" si="2"/>
@@ -12517,28 +10619,28 @@
         <v>2002</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" si="2"/>
@@ -12605,28 +10707,28 @@
         <v>2003</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" si="2"/>
@@ -12693,28 +10795,28 @@
         <v>2004</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="2"/>
@@ -12781,28 +10883,28 @@
         <v>2005</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="2"/>
@@ -12869,28 +10971,28 @@
         <v>2006</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="2"/>
@@ -12957,28 +11059,28 @@
         <v>2007</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="2"/>
@@ -13045,28 +11147,28 @@
         <v>2008</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="2"/>
@@ -13133,28 +11235,28 @@
         <v>2009</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="2"/>
@@ -13221,28 +11323,28 @@
         <v>2010</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="2"/>
@@ -13309,28 +11411,28 @@
         <v>2011</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="2"/>
@@ -13397,28 +11499,28 @@
         <v>2012</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="2"/>
@@ -13485,28 +11587,28 @@
         <v>2013</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="2"/>
@@ -13573,28 +11675,28 @@
         <v>2014</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="2"/>
@@ -13661,28 +11763,28 @@
         <v>2015</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" ref="U19:W22" si="9">IF(C19&lt;&gt;"-",C19,0)</f>
@@ -13745,28 +11847,28 @@
         <v>2016</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="U20" s="3">
         <f t="shared" si="9"/>
@@ -13829,28 +11931,28 @@
         <v>2017</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="U21" s="3">
         <f t="shared" si="9"/>
@@ -13913,28 +12015,28 @@
         <v>2018</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" si="9"/>
@@ -13969,7 +12071,7 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:I5 D6:I6 B7:E10 B22:G22 I15:I22 B11:F15 B21:F21 B20:E20 B17:F19 B16:E16">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -13984,7 +12086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -13999,7 +12101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -14014,7 +12116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:I10 I11:I14 H11:H22 G11:G21">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -14029,7 +12131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -14044,7 +12146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -14064,7 +12166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN24"/>
   <sheetViews>
@@ -14092,61 +12194,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="K1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="U1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="36"/>
-      <c r="AE1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="29"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="K1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="U1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="33"/>
+      <c r="AE1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="27"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -14171,7 +12273,7 @@
       <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="8" t="s">
         <v>1</v>
       </c>
@@ -14196,7 +12298,7 @@
       <c r="S2" s="9">
         <v>2</v>
       </c>
-      <c r="U2" s="26"/>
+      <c r="U2" s="24"/>
       <c r="V2" s="8" t="s">
         <v>1</v>
       </c>
@@ -14221,7 +12323,7 @@
       <c r="AC2" s="9">
         <v>2</v>
       </c>
-      <c r="AE2" s="26"/>
+      <c r="AE2" s="24"/>
       <c r="AF2" s="8" t="s">
         <v>1</v>
       </c>
@@ -16910,7 +15012,7 @@
     <mergeCell ref="U1:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:I23 L3:S23 V3:AC23 AF3:AM23">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -16930,7 +15032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ23"/>
   <sheetViews>
@@ -16954,61 +15056,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="14">
         <v>0.01</v>
       </c>
@@ -17033,7 +15135,7 @@
       <c r="I2" s="14">
         <v>2</v>
       </c>
-      <c r="J2" s="31"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="14">
         <v>0.01</v>
       </c>
@@ -17058,7 +15160,7 @@
       <c r="R2" s="14">
         <v>2</v>
       </c>
-      <c r="S2" s="31"/>
+      <c r="S2" s="29"/>
       <c r="T2" s="14">
         <v>0.01</v>
       </c>
@@ -17083,7 +15185,7 @@
       <c r="AA2" s="14">
         <v>2</v>
       </c>
-      <c r="AB2" s="31"/>
+      <c r="AB2" s="29"/>
       <c r="AC2" s="5">
         <v>0.01</v>
       </c>
@@ -17137,7 +15239,7 @@
       <c r="I3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="19">
         <v>1999</v>
       </c>
       <c r="K3" s="15" t="s">
@@ -17164,7 +15266,7 @@
       <c r="R3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="19">
         <v>1999</v>
       </c>
       <c r="T3" s="15" t="s">
@@ -17247,7 +15349,7 @@
       <c r="I4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="19">
         <v>2000</v>
       </c>
       <c r="K4" s="15" t="s">
@@ -17274,7 +15376,7 @@
       <c r="R4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="19">
         <v>2000</v>
       </c>
       <c r="T4" s="15" t="s">
@@ -17357,7 +15459,7 @@
       <c r="I5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="19">
         <v>2001</v>
       </c>
       <c r="K5" s="15" t="s">
@@ -17384,7 +15486,7 @@
       <c r="R5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="19">
         <v>2001</v>
       </c>
       <c r="T5" s="15" t="s">
@@ -17467,7 +15569,7 @@
       <c r="I6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="19">
         <v>2002</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -17494,7 +15596,7 @@
       <c r="R6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="19">
         <v>2002</v>
       </c>
       <c r="T6" s="15" t="s">
@@ -17577,7 +15679,7 @@
       <c r="I7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="19">
         <v>2003</v>
       </c>
       <c r="K7" s="15" t="s">
@@ -17604,7 +15706,7 @@
       <c r="R7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="19">
         <v>2003</v>
       </c>
       <c r="T7" s="15" t="s">
@@ -17687,7 +15789,7 @@
       <c r="I8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="19">
         <v>2004</v>
       </c>
       <c r="K8" s="15" t="s">
@@ -17714,7 +15816,7 @@
       <c r="R8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="19">
         <v>2004</v>
       </c>
       <c r="T8" s="15" t="s">
@@ -17797,7 +15899,7 @@
       <c r="I9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="19">
         <v>2005</v>
       </c>
       <c r="K9" s="15" t="s">
@@ -17824,7 +15926,7 @@
       <c r="R9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="19">
         <v>2005</v>
       </c>
       <c r="T9" s="15" t="s">
@@ -17907,7 +16009,7 @@
       <c r="I10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="19">
         <v>2006</v>
       </c>
       <c r="K10" s="15" t="s">
@@ -17934,7 +16036,7 @@
       <c r="R10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="19">
         <v>2006</v>
       </c>
       <c r="T10" s="15" t="s">
@@ -18017,7 +16119,7 @@
       <c r="I11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="19">
         <v>2007</v>
       </c>
       <c r="K11" s="15" t="s">
@@ -18044,7 +16146,7 @@
       <c r="R11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="19">
         <v>2007</v>
       </c>
       <c r="T11" s="15" t="s">
@@ -18127,7 +16229,7 @@
       <c r="I12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="19">
         <v>2008</v>
       </c>
       <c r="K12" s="15" t="s">
@@ -18154,7 +16256,7 @@
       <c r="R12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="19">
         <v>2008</v>
       </c>
       <c r="T12" s="15" t="s">
@@ -18237,7 +16339,7 @@
       <c r="I13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="19">
         <v>2009</v>
       </c>
       <c r="K13" s="15" t="s">
@@ -18264,7 +16366,7 @@
       <c r="R13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="19">
         <v>2009</v>
       </c>
       <c r="T13" s="15" t="s">
@@ -18347,7 +16449,7 @@
       <c r="I14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="19">
         <v>2010</v>
       </c>
       <c r="K14" s="15" t="s">
@@ -18374,7 +16476,7 @@
       <c r="R14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="19">
         <v>2010</v>
       </c>
       <c r="T14" s="15" t="s">
@@ -18434,30 +16536,30 @@
         <v>2011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="J15" s="21">
+        <v>243</v>
+      </c>
+      <c r="J15" s="19">
         <v>2011</v>
       </c>
       <c r="K15" s="15" t="s">
@@ -18484,7 +16586,7 @@
       <c r="R15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="19">
         <v>2011</v>
       </c>
       <c r="T15" s="15" t="s">
@@ -18567,14 +16669,14 @@
       <c r="I16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="19">
         <v>2012</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>7</v>
@@ -18594,7 +16696,7 @@
       <c r="R16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="19">
         <v>2012</v>
       </c>
       <c r="T16" s="15" t="s">
@@ -18677,7 +16779,7 @@
       <c r="I17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="19">
         <v>2013</v>
       </c>
       <c r="K17" s="15" t="s">
@@ -18704,7 +16806,7 @@
       <c r="R17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S17" s="21">
+      <c r="S17" s="19">
         <v>2013</v>
       </c>
       <c r="T17" s="15" t="s">
@@ -18787,7 +16889,7 @@
       <c r="I18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="19">
         <v>2014</v>
       </c>
       <c r="K18" s="15" t="s">
@@ -18814,7 +16916,7 @@
       <c r="R18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="19">
         <v>2014</v>
       </c>
       <c r="T18" s="15" t="s">
@@ -18897,7 +16999,7 @@
       <c r="I19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="19">
         <v>2015</v>
       </c>
       <c r="K19" s="15" t="s">
@@ -18928,10 +17030,10 @@
         <v>2015</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="V19" s="15" t="s">
         <v>7</v>
@@ -19007,7 +17109,7 @@
       <c r="I20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="19">
         <v>2016</v>
       </c>
       <c r="K20" s="15" t="s">
@@ -19094,19 +17196,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>7</v>
@@ -19117,7 +17219,7 @@
       <c r="I21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="19">
         <v>2017</v>
       </c>
       <c r="K21" s="15" t="s">
@@ -19258,28 +17360,28 @@
         <v>2018</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="V22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="X22" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB22" s="6">
         <v>2018</v>
@@ -19337,7 +17439,7 @@
       <c r="I23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="19">
         <v>2019</v>
       </c>
       <c r="K23" s="15" t="s">
@@ -19364,7 +17466,7 @@
       <c r="R23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S23" s="21">
+      <c r="S23" s="19">
         <v>2019</v>
       </c>
       <c r="T23" s="15" t="s">
@@ -19395,7 +17497,7 @@
         <v>2019</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD23" s="7" t="s">
         <v>7</v>
@@ -19435,7 +17537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -19455,79 +17557,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>294</v>
+      <c r="B2" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>299</v>
+      <c r="B3" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>297</v>
+      <c r="B4" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>295</v>
+      <c r="B5" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>300</v>
+      <c r="B6" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>302</v>
+      <c r="B7" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/Евро/Регулярный_чекан_с_тиражами_1999-н.в.xlsx
+++ b/Collections/Евро/Регулярный_чекан_с_тиражами_1999-н.в.xlsx
@@ -12,11 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Финляндия" sheetId="21" r:id="rId1"/>
-    <sheet name="Франция" sheetId="22" r:id="rId2"/>
-    <sheet name="Эстония" sheetId="23" r:id="rId3"/>
-    <sheet name="Эстония_тиражи" sheetId="33" r:id="rId4"/>
-    <sheet name="Сайты" sheetId="30" r:id="rId5"/>
+    <sheet name="Франция" sheetId="22" r:id="rId1"/>
+    <sheet name="Эстония" sheetId="23" r:id="rId2"/>
+    <sheet name="Эстония_тиражи" sheetId="33" r:id="rId3"/>
+    <sheet name="Сайты" sheetId="30" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,167 +30,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-    <author>Автор</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Финляндии (Вантаа)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Финляндии (Вантаа)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -352,7 +190,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -422,7 +260,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -974,7 +812,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="174">
   <si>
     <t>Год</t>
   </si>
@@ -1000,9 +838,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>1.000.000</t>
-  </si>
-  <si>
     <t>20.000</t>
   </si>
   <si>
@@ -1012,60 +847,24 @@
     <t>FI</t>
   </si>
   <si>
-    <t>6.790.000</t>
-  </si>
-  <si>
-    <t>8.680.000</t>
-  </si>
-  <si>
-    <t>8.300.000</t>
-  </si>
-  <si>
     <t>4.000.000</t>
   </si>
   <si>
     <t>4.500.000</t>
   </si>
   <si>
-    <t>3.300.000</t>
-  </si>
-  <si>
-    <t>3.800.000</t>
-  </si>
-  <si>
     <t>500.000</t>
   </si>
   <si>
-    <t>300.000</t>
-  </si>
-  <si>
     <t>10.000.000</t>
   </si>
   <si>
-    <t>7.000.000</t>
-  </si>
-  <si>
     <t>14.000.000</t>
   </si>
   <si>
-    <t>3.000.000</t>
-  </si>
-  <si>
     <t>30.000.000</t>
   </si>
   <si>
-    <t>200.000</t>
-  </si>
-  <si>
-    <t>100.000</t>
-  </si>
-  <si>
-    <t>8.000.000</t>
-  </si>
-  <si>
-    <t>8.100.000</t>
-  </si>
-  <si>
     <t>25.000.000</t>
   </si>
   <si>
@@ -1078,18 +877,6 @@
     <t>NL</t>
   </si>
   <si>
-    <t>50.000</t>
-  </si>
-  <si>
-    <t>800.000</t>
-  </si>
-  <si>
-    <t>900.000</t>
-  </si>
-  <si>
-    <t>400.000</t>
-  </si>
-  <si>
     <t>9.000.000</t>
   </si>
   <si>
@@ -1099,148 +886,7 @@
     <t>SK</t>
   </si>
   <si>
-    <t>1.785.000</t>
-  </si>
-  <si>
-    <t>63.380.000</t>
-  </si>
-  <si>
-    <t>133.520.000</t>
-  </si>
-  <si>
-    <t>42.350.000</t>
-  </si>
-  <si>
-    <t>20.696.000</t>
-  </si>
-  <si>
-    <t>16.210.000</t>
-  </si>
-  <si>
-    <t>16.090.000</t>
-  </si>
-  <si>
-    <t>7.600.000</t>
-  </si>
-  <si>
-    <t>13.937.000</t>
-  </si>
-  <si>
-    <t>56.660.000</t>
-  </si>
-  <si>
-    <t>167.449.000</t>
-  </si>
-  <si>
-    <t>67.097.000</t>
-  </si>
-  <si>
-    <t>36.639.000</t>
-  </si>
-  <si>
-    <t>213.756.000</t>
-  </si>
-  <si>
-    <t>14.730.000</t>
-  </si>
-  <si>
-    <t>121.763.000</t>
-  </si>
-  <si>
-    <t>4.432.000</t>
-  </si>
-  <si>
-    <t>13.862.000</t>
-  </si>
-  <si>
-    <t>29.132.000</t>
-  </si>
-  <si>
-    <t>659.000</t>
-  </si>
-  <si>
-    <t>101.824.000</t>
-  </si>
-  <si>
-    <t>1.499.000</t>
-  </si>
-  <si>
-    <t>100.759.000</t>
-  </si>
-  <si>
-    <t>1.147.000</t>
-  </si>
-  <si>
-    <t>14.114.000</t>
-  </si>
-  <si>
-    <t>1.386.000</t>
-  </si>
-  <si>
-    <t>790.000</t>
-  </si>
-  <si>
-    <t>9.080.000</t>
-  </si>
-  <si>
-    <t>9.690.000</t>
-  </si>
-  <si>
-    <t>8.024.000</t>
-  </si>
-  <si>
-    <t>629.000</t>
-  </si>
-  <si>
-    <t>5.529.000</t>
-  </si>
-  <si>
-    <t>9.029.000</t>
-  </si>
-  <si>
-    <t>5.800.000</t>
-  </si>
-  <si>
-    <t>4.800.000</t>
-  </si>
-  <si>
-    <t>7.935.000</t>
-  </si>
-  <si>
-    <t>8.800.000</t>
-  </si>
-  <si>
-    <t>6.850.000</t>
-  </si>
-  <si>
-    <t>1.705.000</t>
-  </si>
-  <si>
     <t>8.500.000</t>
-  </si>
-  <si>
-    <t>5.200.000</t>
-  </si>
-  <si>
-    <t>1.500.000</t>
-  </si>
-  <si>
-    <t>6.300.000</t>
-  </si>
-  <si>
-    <t>10.800.000</t>
-  </si>
-  <si>
-    <t>13.780.000</t>
-  </si>
-  <si>
-    <t>10.200.000</t>
-  </si>
-  <si>
-    <t>10.180.000</t>
-  </si>
-  <si>
-    <t>2.050.000</t>
   </si>
   <si>
     <t>794.066.000</t>
@@ -2013,8 +1659,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2028,12 +1672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2042,6 +1680,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -2050,15 +1696,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2145,9 +1783,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="10"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="9" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="8"/>
+    <tableColumn id="1" name="№" dataDxfId="9"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="8" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2416,1790 +2054,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="9" width="4.7265625" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
-    <col min="11" max="11" width="5.7265625" customWidth="1"/>
-    <col min="12" max="19" width="13.1796875" customWidth="1"/>
-    <col min="20" max="27" width="8.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="K1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="35"/>
-    </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9">
-        <v>2</v>
-      </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="R2" s="5">
-        <v>1</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="str">
-        <f t="shared" ref="J3:J22" si="0">IF(OR(AND(B3&gt;1,B3&lt;&gt;"-"),AND(C3&gt;1,C3&lt;&gt;"-"),AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-"),AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-      <c r="K3" s="6">
-        <v>1999</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="3">
-        <f t="shared" ref="U3:U18" si="1">IF(C3&lt;&gt;"-",C3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <f t="shared" ref="V3:V18" si="2">IF(D3&lt;&gt;"-",D3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="3">
-        <f t="shared" ref="W3:W18" si="3">IF(E3&lt;&gt;"-",E3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="3">
-        <f t="shared" ref="X3:X18" si="4">IF(F3&lt;&gt;"-",F3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y18" si="5">IF(G3&lt;&gt;"-",G3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3">
-        <f t="shared" ref="Z3:Z18" si="6">IF(H3&lt;&gt;"-",H3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="3">
-        <f t="shared" ref="AA3:AA18" si="7">IF(I3&lt;&gt;"-",I3,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K4" s="6">
-        <v>2000</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="W4" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X4" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Есть на обмен</v>
-      </c>
-      <c r="K5" s="6">
-        <v>2001</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="U5" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="W5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Y5" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K6" s="6">
-        <v>2002</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="U6" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AA6" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K7" s="6">
-        <v>2003</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="U7" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K8" s="6">
-        <v>2004</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="U8" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K9" s="6">
-        <v>2005</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="U9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K10" s="6">
-        <v>2006</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="U10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="6">
-        <v>2007</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="U11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K12" s="6">
-        <v>2008</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="U12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K13" s="6">
-        <v>2009</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="U13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K14" s="6">
-        <v>2010</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K15" s="6">
-        <v>2011</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="U15" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K16" s="6">
-        <v>2012</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="U16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K17" s="6">
-        <v>2013</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="U17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K18" s="6">
-        <v>2014</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K19" s="6">
-        <v>2015</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K20" s="6">
-        <v>2016</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K21" s="6">
-        <v>2017</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K22" s="6">
-        <v>2018</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:S1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B3:I22">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(B3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q28" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4217,28 +2078,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="K1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+        <v>9</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="K1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
@@ -4266,7 +2127,7 @@
       <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="K2" s="30"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="5">
         <v>0.01</v>
       </c>
@@ -4328,28 +2189,28 @@
         <v>1999</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="T3" s="3">
         <f t="shared" ref="T3:W3" si="0">IF(B3&lt;&gt;"-",B3,0)</f>
@@ -4416,28 +2277,28 @@
         <v>2000</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" ref="T4:T18" si="2">IF(B4&lt;&gt;"-",B4,0)</f>
@@ -4504,28 +2365,28 @@
         <v>2001</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="T5" s="3">
         <f t="shared" si="2"/>
@@ -4592,28 +2453,28 @@
         <v>2002</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" si="2"/>
@@ -4680,28 +2541,28 @@
         <v>2003</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" si="2"/>
@@ -4768,28 +2629,28 @@
         <v>2004</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="2"/>
@@ -4856,28 +2717,28 @@
         <v>2005</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="2"/>
@@ -4944,28 +2805,28 @@
         <v>2006</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="2"/>
@@ -5032,28 +2893,28 @@
         <v>2007</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="2"/>
@@ -5120,28 +2981,28 @@
         <v>2008</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="2"/>
@@ -5208,28 +3069,28 @@
         <v>2009</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="2"/>
@@ -5296,28 +3157,28 @@
         <v>2010</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="2"/>
@@ -5384,28 +3245,28 @@
         <v>2011</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="2"/>
@@ -5472,28 +3333,28 @@
         <v>2012</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="2"/>
@@ -5560,28 +3421,28 @@
         <v>2013</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="2"/>
@@ -5648,28 +3509,28 @@
         <v>2014</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="2"/>
@@ -5736,28 +3597,28 @@
         <v>2015</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" ref="U19:W22" si="9">IF(C19&lt;&gt;"-",C19,0)</f>
@@ -5820,28 +3681,28 @@
         <v>2016</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="U20" s="3">
         <f t="shared" si="9"/>
@@ -5904,28 +3765,28 @@
         <v>2017</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="R21" s="12" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="S21" s="16" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="U21" s="3">
         <f t="shared" si="9"/>
@@ -5988,28 +3849,28 @@
         <v>2018</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" si="9"/>
@@ -6139,7 +4000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN24"/>
   <sheetViews>
@@ -6171,54 +4032,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+        <v>10</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
       <c r="K1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
+        <v>20</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
       <c r="U1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="28"/>
+        <v>19</v>
+      </c>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="26"/>
       <c r="AE1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="AF1" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="35"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
@@ -9005,7 +6866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ23"/>
   <sheetViews>
@@ -9029,37 +6890,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>32</v>
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="U1" s="36"/>
       <c r="V1" s="36"/>
@@ -9068,22 +6929,22 @@
       <c r="Y1" s="36"/>
       <c r="Z1" s="36"/>
       <c r="AA1" s="36"/>
-      <c r="AB1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
+      <c r="AB1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="13">
         <v>0.01</v>
       </c>
@@ -9108,7 +6969,7 @@
       <c r="I2" s="13">
         <v>2</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="13">
         <v>0.01</v>
       </c>
@@ -9133,7 +6994,7 @@
       <c r="R2" s="13">
         <v>2</v>
       </c>
-      <c r="S2" s="30"/>
+      <c r="S2" s="28"/>
       <c r="T2" s="13">
         <v>0.01</v>
       </c>
@@ -9158,7 +7019,7 @@
       <c r="AA2" s="13">
         <v>2</v>
       </c>
-      <c r="AB2" s="30"/>
+      <c r="AB2" s="28"/>
       <c r="AC2" s="5">
         <v>0.01</v>
       </c>
@@ -10509,28 +8370,28 @@
         <v>2011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="J15" s="18">
         <v>2011</v>
@@ -10646,10 +8507,10 @@
         <v>2012</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>7</v>
@@ -11003,10 +8864,10 @@
         <v>2015</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="V19" s="14" t="s">
         <v>7</v>
@@ -11059,28 +8920,28 @@
         <v>2016</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" s="18">
         <v>2016</v>
@@ -11169,19 +9030,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>7</v>
@@ -11333,28 +9194,28 @@
         <v>2018</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB22" s="6">
         <v>2018</v>
@@ -11470,7 +9331,7 @@
         <v>2019</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AD23" s="7" t="s">
         <v>7</v>
@@ -11510,7 +9371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -11530,13 +9391,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11544,10 +9405,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11555,10 +9416,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11566,10 +9427,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11577,10 +9438,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11588,10 +9449,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11599,10 +9460,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
